--- a/data/nzd0380/nzd0380.xlsx
+++ b/data/nzd0380/nzd0380.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M527"/>
+  <dimension ref="A1:M534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21761,6 +21761,321 @@
         </is>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-11 22:19:41+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>407.4505882352942</v>
+      </c>
+      <c r="C528" t="n">
+        <v>402.8933333333333</v>
+      </c>
+      <c r="D528" t="n">
+        <v>395.82</v>
+      </c>
+      <c r="E528" t="n">
+        <v>399.2733333333333</v>
+      </c>
+      <c r="F528" t="n">
+        <v>398.585</v>
+      </c>
+      <c r="G528" t="n">
+        <v>402.2307692307692</v>
+      </c>
+      <c r="H528" t="n">
+        <v>395.3807692307692</v>
+      </c>
+      <c r="I528" t="n">
+        <v>384.6607692307692</v>
+      </c>
+      <c r="J528" t="n">
+        <v>379.66</v>
+      </c>
+      <c r="K528" t="n">
+        <v>381.01</v>
+      </c>
+      <c r="L528" t="n">
+        <v>380.97</v>
+      </c>
+      <c r="M528" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:13:34+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>409.3982352941176</v>
+      </c>
+      <c r="C529" t="n">
+        <v>394.1611111111111</v>
+      </c>
+      <c r="D529" t="n">
+        <v>392.4809523809524</v>
+      </c>
+      <c r="E529" t="n">
+        <v>394.7711111111111</v>
+      </c>
+      <c r="F529" t="n">
+        <v>394.91</v>
+      </c>
+      <c r="G529" t="n">
+        <v>396.0823076923077</v>
+      </c>
+      <c r="H529" t="n">
+        <v>393.7023076923077</v>
+      </c>
+      <c r="I529" t="n">
+        <v>384.4023076923077</v>
+      </c>
+      <c r="J529" t="n">
+        <v>377.61</v>
+      </c>
+      <c r="K529" t="n">
+        <v>385.9566666666667</v>
+      </c>
+      <c r="L529" t="n">
+        <v>373.3366666666667</v>
+      </c>
+      <c r="M529" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:45+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>404.5605882352941</v>
+      </c>
+      <c r="C530" t="n">
+        <v>403.4811111111111</v>
+      </c>
+      <c r="D530" t="n">
+        <v>392.9280952380952</v>
+      </c>
+      <c r="E530" t="n">
+        <v>395.6111111111111</v>
+      </c>
+      <c r="F530" t="n">
+        <v>397.335</v>
+      </c>
+      <c r="G530" t="n">
+        <v>391.2615384615385</v>
+      </c>
+      <c r="H530" t="n">
+        <v>395.8415384615385</v>
+      </c>
+      <c r="I530" t="n">
+        <v>393.9215384615384</v>
+      </c>
+      <c r="J530" t="n">
+        <v>386.29</v>
+      </c>
+      <c r="K530" t="n">
+        <v>382.7666666666667</v>
+      </c>
+      <c r="L530" t="n">
+        <v>379.2666666666667</v>
+      </c>
+      <c r="M530" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:19:38+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>401.7694117647059</v>
+      </c>
+      <c r="C531" t="n">
+        <v>399.88</v>
+      </c>
+      <c r="D531" t="n">
+        <v>392.1728571428571</v>
+      </c>
+      <c r="E531" t="n">
+        <v>386.6</v>
+      </c>
+      <c r="F531" t="n">
+        <v>387.87</v>
+      </c>
+      <c r="G531" t="n">
+        <v>390.4330769230769</v>
+      </c>
+      <c r="H531" t="n">
+        <v>376.1330769230769</v>
+      </c>
+      <c r="I531" t="n">
+        <v>382.2730769230769</v>
+      </c>
+      <c r="J531" t="n">
+        <v>375.67</v>
+      </c>
+      <c r="K531" t="n">
+        <v>375.95</v>
+      </c>
+      <c r="L531" t="n">
+        <v>377.02</v>
+      </c>
+      <c r="M531" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>411.8994117647059</v>
+      </c>
+      <c r="C532" t="n">
+        <v>407.9122222222222</v>
+      </c>
+      <c r="D532" t="n">
+        <v>394.944761904762</v>
+      </c>
+      <c r="E532" t="n">
+        <v>383.8022222222222</v>
+      </c>
+      <c r="F532" t="n">
+        <v>385.78</v>
+      </c>
+      <c r="G532" t="n">
+        <v>383.4723076923077</v>
+      </c>
+      <c r="H532" t="n">
+        <v>390.1223076923077</v>
+      </c>
+      <c r="I532" t="n">
+        <v>392.2523076923077</v>
+      </c>
+      <c r="J532" t="n">
+        <v>383.09</v>
+      </c>
+      <c r="K532" t="n">
+        <v>385.2133333333333</v>
+      </c>
+      <c r="L532" t="n">
+        <v>390.0533333333333</v>
+      </c>
+      <c r="M532" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:37+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>411.2011764705882</v>
+      </c>
+      <c r="C533" t="n">
+        <v>412.9644444444445</v>
+      </c>
+      <c r="D533" t="n">
+        <v>404.5766666666667</v>
+      </c>
+      <c r="E533" t="n">
+        <v>406.7844444444444</v>
+      </c>
+      <c r="F533" t="n">
+        <v>408.375</v>
+      </c>
+      <c r="G533" t="n">
+        <v>399.8738461538462</v>
+      </c>
+      <c r="H533" t="n">
+        <v>395.4338461538461</v>
+      </c>
+      <c r="I533" t="n">
+        <v>387.9738461538461</v>
+      </c>
+      <c r="J533" t="n">
+        <v>386.89</v>
+      </c>
+      <c r="K533" t="n">
+        <v>387.7266666666667</v>
+      </c>
+      <c r="L533" t="n">
+        <v>393.5766666666667</v>
+      </c>
+      <c r="M533" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:24+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>407.1464705882353</v>
+      </c>
+      <c r="C534" t="n">
+        <v>405.1388888888889</v>
+      </c>
+      <c r="D534" t="n">
+        <v>408.1604761904762</v>
+      </c>
+      <c r="E534" t="n">
+        <v>402.2888888888889</v>
+      </c>
+      <c r="F534" t="n">
+        <v>405.87</v>
+      </c>
+      <c r="G534" t="n">
+        <v>405.5792307692308</v>
+      </c>
+      <c r="H534" t="n">
+        <v>400.5592307692308</v>
+      </c>
+      <c r="I534" t="n">
+        <v>396.3492307692308</v>
+      </c>
+      <c r="J534" t="n">
+        <v>398.14</v>
+      </c>
+      <c r="K534" t="n">
+        <v>400.5733333333333</v>
+      </c>
+      <c r="L534" t="n">
+        <v>398.7833333333333</v>
+      </c>
+      <c r="M534" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21772,7 +22087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B546"/>
+  <dimension ref="A1:B553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27240,6 +27555,76 @@
       </c>
       <c r="B546" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2024-12-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -27408,28 +27793,28 @@
         <v>0.1062</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.08457239427607822</v>
+        <v>-0.05015807826955967</v>
       </c>
       <c r="J2" t="n">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="K2" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002025146644593745</v>
+        <v>0.0007287657052625907</v>
       </c>
       <c r="M2" t="n">
-        <v>11.07516602116502</v>
+        <v>11.06149520427388</v>
       </c>
       <c r="N2" t="n">
-        <v>198.5445080344787</v>
+        <v>197.5495581250552</v>
       </c>
       <c r="O2" t="n">
-        <v>14.09058224611314</v>
+        <v>14.05523241092282</v>
       </c>
       <c r="P2" t="n">
-        <v>398.2811143107105</v>
+        <v>397.9589238554137</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -27485,28 +27870,28 @@
         <v>0.1014</v>
       </c>
       <c r="I3" t="n">
-        <v>3.358624905855142e-06</v>
+        <v>0.02006214500451256</v>
       </c>
       <c r="J3" t="n">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="K3" t="n">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="L3" t="n">
-        <v>3.487321542650079e-12</v>
+        <v>0.0001276086034540658</v>
       </c>
       <c r="M3" t="n">
-        <v>10.35442068863905</v>
+        <v>10.30329720148363</v>
       </c>
       <c r="N3" t="n">
-        <v>180.1129906630717</v>
+        <v>178.431707822067</v>
       </c>
       <c r="O3" t="n">
-        <v>13.42061811777206</v>
+        <v>13.35783320086259</v>
       </c>
       <c r="P3" t="n">
-        <v>396.9869194434538</v>
+        <v>396.7967088314755</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -27562,28 +27947,28 @@
         <v>0.1217</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01564533008542114</v>
+        <v>0.02100764797810712</v>
       </c>
       <c r="J4" t="n">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="K4" t="n">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="L4" t="n">
-        <v>8.812861352869295e-05</v>
+        <v>0.0001634704978450419</v>
       </c>
       <c r="M4" t="n">
-        <v>9.76556393684004</v>
+        <v>9.681823342339133</v>
       </c>
       <c r="N4" t="n">
-        <v>156.4735466484465</v>
+        <v>154.5402545556517</v>
       </c>
       <c r="O4" t="n">
-        <v>12.50893866994505</v>
+        <v>12.43142206489876</v>
       </c>
       <c r="P4" t="n">
-        <v>395.1391810427305</v>
+        <v>395.0882802504394</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -27639,28 +28024,28 @@
         <v>0.1091</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006937225259787371</v>
+        <v>0.01162097522559381</v>
       </c>
       <c r="J5" t="n">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="K5" t="n">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="L5" t="n">
-        <v>1.938846991977883e-05</v>
+        <v>5.583081871451956e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>9.317100188263785</v>
+        <v>9.273230895680738</v>
       </c>
       <c r="N5" t="n">
-        <v>144.1655320380838</v>
+        <v>142.7700233301388</v>
       </c>
       <c r="O5" t="n">
-        <v>12.00689518726985</v>
+        <v>11.94864106625263</v>
       </c>
       <c r="P5" t="n">
-        <v>393.8606676155721</v>
+        <v>393.8174521183054</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -27716,28 +28101,28 @@
         <v>0.0862</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1116384024587048</v>
+        <v>-0.09512928074205501</v>
       </c>
       <c r="J6" t="n">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="K6" t="n">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005121199378001373</v>
+        <v>0.003808648948717464</v>
       </c>
       <c r="M6" t="n">
-        <v>9.04641811266475</v>
+        <v>9.043492851212745</v>
       </c>
       <c r="N6" t="n">
-        <v>139.7424089322884</v>
+        <v>138.9322888991648</v>
       </c>
       <c r="O6" t="n">
-        <v>11.82126934522213</v>
+        <v>11.78695418244954</v>
       </c>
       <c r="P6" t="n">
-        <v>394.2634455151456</v>
+        <v>394.1122297078076</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -27793,28 +28178,28 @@
         <v>0.0701</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04734696432504935</v>
+        <v>-0.03376952979331189</v>
       </c>
       <c r="J7" t="n">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="K7" t="n">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001051268942118377</v>
+        <v>0.0005478655869749494</v>
       </c>
       <c r="M7" t="n">
-        <v>8.536956729413374</v>
+        <v>8.513177441942798</v>
       </c>
       <c r="N7" t="n">
-        <v>123.7709945687364</v>
+        <v>122.8643088820791</v>
       </c>
       <c r="O7" t="n">
-        <v>11.12524132631452</v>
+        <v>11.0844173902862</v>
       </c>
       <c r="P7" t="n">
-        <v>392.2830294525007</v>
+        <v>392.1582196421389</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -27870,28 +28255,28 @@
         <v>0.0711</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02719224779723563</v>
+        <v>0.03890905942320612</v>
       </c>
       <c r="J8" t="n">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="K8" t="n">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002961502101281877</v>
+        <v>0.0006215344230385833</v>
       </c>
       <c r="M8" t="n">
-        <v>9.167054474130705</v>
+        <v>9.138968697794501</v>
       </c>
       <c r="N8" t="n">
-        <v>143.0106326955134</v>
+        <v>141.7406074209239</v>
       </c>
       <c r="O8" t="n">
-        <v>11.95870531017106</v>
+        <v>11.90548644201168</v>
       </c>
       <c r="P8" t="n">
-        <v>387.8938301830876</v>
+        <v>387.7847606805295</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -27947,28 +28332,28 @@
         <v>0.0761</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.04633750426502201</v>
+        <v>-0.02837129599495364</v>
       </c>
       <c r="J9" t="n">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="K9" t="n">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007644511907097806</v>
+        <v>0.0002946615033743161</v>
       </c>
       <c r="M9" t="n">
-        <v>9.618379600093496</v>
+        <v>9.556313096012238</v>
       </c>
       <c r="N9" t="n">
-        <v>157.990635848167</v>
+        <v>156.3137278278206</v>
       </c>
       <c r="O9" t="n">
-        <v>12.56943259849732</v>
+        <v>12.50254885324671</v>
       </c>
       <c r="P9" t="n">
-        <v>384.1731618394102</v>
+        <v>384.0041627408104</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28024,28 +28409,28 @@
         <v>0.0554</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1270706796481158</v>
+        <v>-0.1121263267526602</v>
       </c>
       <c r="J10" t="n">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="K10" t="n">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005684807030795325</v>
+        <v>0.004548947510145895</v>
       </c>
       <c r="M10" t="n">
-        <v>9.595078557783758</v>
+        <v>9.529264392859318</v>
       </c>
       <c r="N10" t="n">
-        <v>157.1701967908667</v>
+        <v>155.7369015031607</v>
       </c>
       <c r="O10" t="n">
-        <v>12.5367538378508</v>
+        <v>12.4794591831201</v>
       </c>
       <c r="P10" t="n">
-        <v>382.3367206095909</v>
+        <v>382.1949896115531</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -28101,28 +28486,28 @@
         <v>0.0646</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1445016719079171</v>
+        <v>-0.1135810490742688</v>
       </c>
       <c r="J11" t="n">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="K11" t="n">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006425147467967074</v>
+        <v>0.004065173429205649</v>
       </c>
       <c r="M11" t="n">
-        <v>9.97329896026992</v>
+        <v>9.959027652921041</v>
       </c>
       <c r="N11" t="n">
-        <v>177.5286965312765</v>
+        <v>176.9177835333028</v>
       </c>
       <c r="O11" t="n">
-        <v>13.32398951257755</v>
+        <v>13.30104445272261</v>
       </c>
       <c r="P11" t="n">
-        <v>379.5011691590051</v>
+        <v>379.2079144494716</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -28178,28 +28563,28 @@
         <v>0.0701</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1366113556797601</v>
+        <v>-0.1029100993349678</v>
       </c>
       <c r="J12" t="n">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="K12" t="n">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004379981531428601</v>
+        <v>0.002548557190554024</v>
       </c>
       <c r="M12" t="n">
-        <v>11.45656417680988</v>
+        <v>11.41473485735426</v>
       </c>
       <c r="N12" t="n">
-        <v>231.9316053736685</v>
+        <v>230.9240986720297</v>
       </c>
       <c r="O12" t="n">
-        <v>15.22930088262979</v>
+        <v>15.1961869780557</v>
       </c>
       <c r="P12" t="n">
-        <v>378.0501894991216</v>
+        <v>377.7291361917916</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -28236,7 +28621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M527"/>
+  <dimension ref="A1:M534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58729,6 +59114,475 @@
         </is>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-11 22:19:41+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>-42.059642922892195,171.3636719641554</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>-42.05898354169874,171.36381325781042</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>-42.05832662147454,171.36398477130797</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>-42.05765936871368,171.36402984713118</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>-42.0569961715423,171.36412466890715</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>-42.05632871620903,171.36416743462726</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>-42.05567154893339,171.36433626216586</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>-42.055018170410236,171.3645515687511</t>
+        </is>
+      </c>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>-42.054359175088926,171.36469818246493</t>
+        </is>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>-42.05369394378609,171.3647685204422</t>
+        </is>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>-42.05303006889127,171.36485555286706</t>
+        </is>
+      </c>
+      <c r="M528" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:13:34+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>-42.059641012398416,171.36364857022733</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>-42.05899210716884,171.36391814280105</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>-42.058329896714696,171.3640248770697</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>-42.05766378488173,171.36408392338134</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>-42.05699977626942,171.3641688089262</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>-42.056334747070906,171.36424128235302</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>-42.055673195268696,171.36435642156826</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>-42.05501842391949,171.36455467300948</t>
+        </is>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>-42.054361185778504,171.36472280378945</t>
+        </is>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>-42.05368909198448,171.36470910960765</t>
+        </is>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>-42.053037555715676,171.3649472303869</t>
+        </is>
+      </c>
+      <c r="M529" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:45+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>-42.05964575775388,171.36370667704517</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>-42.05898296514184,171.36380619785987</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>-42.05832945811733,171.3640195063749</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>-42.057662960939176,171.3640738341297</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>-42.056997397641865,171.36413968251844</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>-42.056339475601746,171.36429918348955</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>-42.05567109698279,171.36433072803132</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>-42.055009087027926,171.36444034208301</t>
+        </is>
+      </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>-42.0543526721886,171.36461855351018</t>
+        </is>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>-42.05369222081153,171.36474742238863</t>
+        </is>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>-42.05303173953831,171.3648760101631</t>
+        </is>
+      </c>
+      <c r="M530" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:19:38+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>-42.059648495667574,171.3637402029312</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>-42.05898649749969,171.36384945173674</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>-42.05833019892169,171.36402857764435</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>-42.05767179974783,171.3641820667253</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>-42.05700668160424,171.364253365604</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>-42.05634028820894,171.3643091339491</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>-42.05569042800802,171.36456743939698</t>
+        </is>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>-42.0550205123497,171.36458024618662</t>
+        </is>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>-42.05436308857258,171.36474610397127</t>
+        </is>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>-42.053698906715915,171.36482929245176</t>
+        </is>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>-42.053033943086795,171.36490299297805</t>
+        </is>
+      </c>
+      <c r="M531" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>-42.059638558927375,171.3636185276497</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>-42.058978618608286,171.36375297464565</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>-42.05832747998864,171.36399528391308</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>-42.057674544008314,171.36421567088442</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>-42.05700873161357,171.3642784683716</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>-42.05634711573548,171.3643927381463</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>-42.05567670673475,171.36439941967427</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>-42.05501072429306,171.3644603904125</t>
+        </is>
+      </c>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>-42.05435581085022,171.36465698678927</t>
+        </is>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>-42.05368982106444,171.3647180372459</t>
+        </is>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>-42.05302115980217,171.3647464606529</t>
+        </is>
+      </c>
+      <c r="M532" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:37+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>-42.05963924384588,171.36362691441792</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>-42.05897366278893,171.36369229111605</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>-42.05831803207696,171.36387959379795</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>-42.057652001111315,171.36393963109555</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>-42.05698656866299,171.36400708232554</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>-42.056331028057585,171.3641957430743</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>-42.05567149687232,171.3643356246779</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>-42.055014920806514,171.36451177696543</t>
+        </is>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>-42.05435208368811,171.36461134727082</t>
+        </is>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>-42.05368735592135,171.36468785142063</t>
+        </is>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>-42.05301770402864,171.36470414489304</t>
+        </is>
+      </c>
+      <c r="M533" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:24+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>-42.05964322120808,171.363675617028</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>-42.05898133900929,171.36378628586405</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>-42.05831451669741,171.36383654818513</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>-42.05765641078239,171.36399362725848</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>-42.05698902579521,171.36403716959322</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>-42.05632543177255,171.3641272170496</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>-42.055666469566816,171.36427406552</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>-42.0550067058195,171.3644111842381</t>
+        </is>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>-42.05434104922069,171.36447623031003</t>
+        </is>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>-42.053674755451084,171.36453355945758</t>
+        </is>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>-42.05301259717119,171.36464161205757</t>
+        </is>
+      </c>
+      <c r="M534" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0380/nzd0380.xlsx
+++ b/data/nzd0380/nzd0380.xlsx
@@ -27638,7 +27638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27729,35 +27729,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -27816,27 +27821,28 @@
       <c r="P2" t="n">
         <v>397.9589238554137</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (171.3685660419425 -42.06004249659762, 171.35778793237708 -42.059162242695045)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>171.3685660419425</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-42.06004249659762</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>171.3577879323771</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-42.05916224269505</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>171.3631769871598</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-42.05960236964633</v>
       </c>
     </row>
@@ -27893,27 +27899,28 @@
       <c r="P3" t="n">
         <v>396.7967088314755</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (171.3686525468321 -42.05937864195281, 171.35787451108374 -42.05849839203148)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>171.3686525468321</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-42.05937864195281</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>171.3578745110837</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-42.05849839203148</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>171.3632635289579</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-42.05893851699214</v>
       </c>
     </row>
@@ -27970,27 +27977,28 @@
       <c r="P4" t="n">
         <v>395.0882802504394</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (171.36873905172214 -42.05871478036794, 171.35796108978926 -42.057834534427755)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>171.3687390517221</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-42.05871478036794</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>171.3579610897893</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-42.05783453442776</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>171.3633500707557</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-42.05827465739785</v>
       </c>
     </row>
@@ -28047,27 +28055,28 @@
       <c r="P5" t="n">
         <v>393.8174521183054</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (171.36882555661282 -42.05805091184319, 171.3580476684937 -42.057170669883746)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>171.3688255566128</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-42.05805091184319</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>171.3580476684937</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-42.05717066988375</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>171.3634366125532</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-42.05761079086346</v>
       </c>
     </row>
@@ -28124,27 +28133,28 @@
       <c r="P6" t="n">
         <v>394.1122297078076</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (171.368912061504 -42.05738703637835, 171.358134247197 -42.05650679839968)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>171.368912061504</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-42.05738703637835</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>171.358134247197</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-42.05650679839968</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>171.3635231543505</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-42.05694691738901</v>
       </c>
     </row>
@@ -28201,27 +28211,28 @@
       <c r="P7" t="n">
         <v>392.1582196421389</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (171.36899856639573 -42.05672315397347, 171.35822082589914 -42.05584291997562)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>171.3689985663957</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-42.05672315397347</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>171.3582208258991</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-42.05584291997562</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>171.3636096961474</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-42.05628303697455</v>
       </c>
     </row>
@@ -28278,27 +28289,28 @@
       <c r="P8" t="n">
         <v>387.7847606805295</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (171.36908507128803 -42.0560592646287, 171.35830740460014 -42.055179034611434)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>171.369085071288</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-42.0560592646287</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>171.3583074046001</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-42.05517903461143</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>171.3636962379441</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-42.05561914962007</v>
       </c>
     </row>
@@ -28355,27 +28367,28 @@
       <c r="P9" t="n">
         <v>384.0041627408104</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (171.36917157618092 -42.055395368343945, 171.3583939833 -42.054515142307125)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>171.3691715761809</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-42.05539536834394</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>171.3583939833</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-42.05451514230712</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>171.3637827797405</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-42.05495525532554</v>
       </c>
     </row>
@@ -28432,27 +28445,28 @@
       <c r="P10" t="n">
         <v>382.1949896115531</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (171.36925808107438 -42.054731465119254, 171.35848056199876 -42.053851243062844)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>171.3692580810744</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-42.05473146511925</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>171.3584805619988</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-42.05385124306284</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>171.3638693215366</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-42.05429135409105</v>
       </c>
     </row>
@@ -28509,27 +28523,28 @@
       <c r="P11" t="n">
         <v>379.2079144494716</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (171.36934458596838 -42.05406755495473, 171.35856714069647 -42.05318733687838)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>171.3693445859684</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-42.05406755495473</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>171.3585671406965</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-42.05318733687838</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>171.3639558633324</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-42.05362744591655</v>
       </c>
     </row>
@@ -28586,27 +28601,28 @@
       <c r="P12" t="n">
         <v>377.7291361917916</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (171.36943109086292 -42.053403637850245, 171.358653719393 -42.052523423753954)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>171.3694310908629</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-42.05340363785024</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>171.358653719393</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-42.05252342375395</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>171.364042405128</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-42.0529635308021</v>
       </c>
     </row>

--- a/data/nzd0380/nzd0380.xlsx
+++ b/data/nzd0380/nzd0380.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M534"/>
+  <dimension ref="A1:M539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22076,6 +22076,231 @@
         </is>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:26+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>398.3476470588236</v>
+      </c>
+      <c r="C535" t="n">
+        <v>395.2088888888889</v>
+      </c>
+      <c r="D535" t="n">
+        <v>394.1033333333333</v>
+      </c>
+      <c r="E535" t="n">
+        <v>395.9688888888889</v>
+      </c>
+      <c r="F535" t="n">
+        <v>400.015</v>
+      </c>
+      <c r="G535" t="n">
+        <v>402.6146153846154</v>
+      </c>
+      <c r="H535" t="n">
+        <v>392.7446153846154</v>
+      </c>
+      <c r="I535" t="n">
+        <v>391.1346153846154</v>
+      </c>
+      <c r="J535" t="n">
+        <v>395.75</v>
+      </c>
+      <c r="K535" t="n">
+        <v>387.9533333333333</v>
+      </c>
+      <c r="L535" t="n">
+        <v>390.4433333333333</v>
+      </c>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:13:28+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>389.9917647058824</v>
+      </c>
+      <c r="C536" t="n">
+        <v>396.2088888888889</v>
+      </c>
+      <c r="D536" t="n">
+        <v>387.4590476190476</v>
+      </c>
+      <c r="E536" t="n">
+        <v>392.5288888888889</v>
+      </c>
+      <c r="F536" t="n">
+        <v>394.38</v>
+      </c>
+      <c r="G536" t="n">
+        <v>395.2576923076923</v>
+      </c>
+      <c r="H536" t="n">
+        <v>391.3876923076923</v>
+      </c>
+      <c r="I536" t="n">
+        <v>386.5476923076923</v>
+      </c>
+      <c r="J536" t="n">
+        <v>387.88</v>
+      </c>
+      <c r="K536" t="n">
+        <v>389.5733333333333</v>
+      </c>
+      <c r="L536" t="n">
+        <v>387.7633333333333</v>
+      </c>
+      <c r="M536" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>397.7911764705883</v>
+      </c>
+      <c r="C537" t="n">
+        <v>397.1166666666667</v>
+      </c>
+      <c r="D537" t="n">
+        <v>392.08</v>
+      </c>
+      <c r="E537" t="n">
+        <v>396.5166666666667</v>
+      </c>
+      <c r="F537" t="n">
+        <v>389.58</v>
+      </c>
+      <c r="G537" t="n">
+        <v>394.8815384615385</v>
+      </c>
+      <c r="H537" t="n">
+        <v>396.2315384615384</v>
+      </c>
+      <c r="I537" t="n">
+        <v>392.7715384615385</v>
+      </c>
+      <c r="J537" t="n">
+        <v>388.82</v>
+      </c>
+      <c r="K537" t="n">
+        <v>388.56</v>
+      </c>
+      <c r="L537" t="n">
+        <v>389.15</v>
+      </c>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:13:08+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>367.9311764705882</v>
+      </c>
+      <c r="C538" t="n">
+        <v>378.2488888888889</v>
+      </c>
+      <c r="D538" t="n">
+        <v>370.2633333333333</v>
+      </c>
+      <c r="E538" t="n">
+        <v>374.6788888888889</v>
+      </c>
+      <c r="F538" t="n">
+        <v>381.065</v>
+      </c>
+      <c r="G538" t="n">
+        <v>370.4292307692308</v>
+      </c>
+      <c r="H538" t="n">
+        <v>383.3792307692308</v>
+      </c>
+      <c r="I538" t="n">
+        <v>378.6892307692308</v>
+      </c>
+      <c r="J538" t="n">
+        <v>387.92</v>
+      </c>
+      <c r="K538" t="n">
+        <v>375.2933333333333</v>
+      </c>
+      <c r="L538" t="n">
+        <v>368.9433333333333</v>
+      </c>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:19:17+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>392.4923529411765</v>
+      </c>
+      <c r="C539" t="n">
+        <v>394.2433333333333</v>
+      </c>
+      <c r="D539" t="n">
+        <v>403.1785714285714</v>
+      </c>
+      <c r="E539" t="n">
+        <v>408.5433333333333</v>
+      </c>
+      <c r="F539" t="n">
+        <v>404.905</v>
+      </c>
+      <c r="G539" t="n">
+        <v>396.6146153846154</v>
+      </c>
+      <c r="H539" t="n">
+        <v>393.6246153846154</v>
+      </c>
+      <c r="I539" t="n">
+        <v>398.1846153846154</v>
+      </c>
+      <c r="J539" t="n">
+        <v>384.76</v>
+      </c>
+      <c r="K539" t="n">
+        <v>384.84</v>
+      </c>
+      <c r="L539" t="n">
+        <v>385.13</v>
+      </c>
+      <c r="M539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22087,7 +22312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B553"/>
+  <dimension ref="A1:B559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27625,6 +27850,66 @@
       </c>
       <c r="B553" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -27798,28 +28083,28 @@
         <v>0.1062</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05015807826955967</v>
+        <v>-0.06578553954118845</v>
       </c>
       <c r="J2" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K2" t="n">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0007287657052625907</v>
+        <v>0.001269195770577491</v>
       </c>
       <c r="M2" t="n">
-        <v>11.06149520427388</v>
+        <v>11.03987701273498</v>
       </c>
       <c r="N2" t="n">
-        <v>197.5495581250552</v>
+        <v>197.3101750383162</v>
       </c>
       <c r="O2" t="n">
-        <v>14.05523241092282</v>
+        <v>14.04671402991875</v>
       </c>
       <c r="P2" t="n">
-        <v>397.9589238554137</v>
+        <v>398.107496076064</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27876,28 +28161,28 @@
         <v>0.1014</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02006214500451256</v>
+        <v>0.009381322469698335</v>
       </c>
       <c r="J3" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K3" t="n">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001276086034540658</v>
+        <v>2.840962744754538e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>10.30329720148363</v>
+        <v>10.24689731517531</v>
       </c>
       <c r="N3" t="n">
-        <v>178.431707822067</v>
+        <v>177.2701283727638</v>
       </c>
       <c r="O3" t="n">
-        <v>13.35783320086259</v>
+        <v>13.31428287114119</v>
       </c>
       <c r="P3" t="n">
-        <v>396.7967088314755</v>
+        <v>396.8994267077504</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27954,28 +28239,28 @@
         <v>0.1217</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02100764797810712</v>
+        <v>0.007852417959112994</v>
       </c>
       <c r="J4" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K4" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001634704978450419</v>
+        <v>2.310331597632498e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>9.681823342339133</v>
+        <v>9.670658907330974</v>
       </c>
       <c r="N4" t="n">
-        <v>154.5402545556517</v>
+        <v>154.5463844371472</v>
       </c>
       <c r="O4" t="n">
-        <v>12.43142206489876</v>
+        <v>12.43166861033334</v>
       </c>
       <c r="P4" t="n">
-        <v>395.0882802504394</v>
+        <v>395.213768493622</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28032,28 +28317,28 @@
         <v>0.1091</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01162097522559381</v>
+        <v>0.01062986212786952</v>
       </c>
       <c r="J5" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K5" t="n">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L5" t="n">
-        <v>5.583081871451956e-05</v>
+        <v>4.734034006015353e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>9.273230895680738</v>
+        <v>9.257403204771926</v>
       </c>
       <c r="N5" t="n">
-        <v>142.7700233301388</v>
+        <v>142.497833718801</v>
       </c>
       <c r="O5" t="n">
-        <v>11.94864106625263</v>
+        <v>11.93724565043381</v>
       </c>
       <c r="P5" t="n">
-        <v>393.8174521183054</v>
+        <v>393.826700027516</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28110,28 +28395,28 @@
         <v>0.0862</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09512928074205501</v>
+        <v>-0.09028797542898331</v>
       </c>
       <c r="J6" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K6" t="n">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003808648948717464</v>
+        <v>0.003491739871348765</v>
       </c>
       <c r="M6" t="n">
-        <v>9.043492851212745</v>
+        <v>9.028270051031216</v>
       </c>
       <c r="N6" t="n">
-        <v>138.9322888991648</v>
+        <v>138.1844736983013</v>
       </c>
       <c r="O6" t="n">
-        <v>11.78695418244954</v>
+        <v>11.75518922426608</v>
       </c>
       <c r="P6" t="n">
-        <v>394.1122297078076</v>
+        <v>394.0674600982943</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28188,28 +28473,28 @@
         <v>0.0701</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03376952979331189</v>
+        <v>-0.03243157877977661</v>
       </c>
       <c r="J7" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K7" t="n">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005478655869749494</v>
+        <v>0.0005111268505960664</v>
       </c>
       <c r="M7" t="n">
-        <v>8.513177441942798</v>
+        <v>8.519495303781284</v>
       </c>
       <c r="N7" t="n">
-        <v>122.8643088820791</v>
+        <v>122.8781882743391</v>
       </c>
       <c r="O7" t="n">
-        <v>11.0844173902862</v>
+        <v>11.08504344936632</v>
       </c>
       <c r="P7" t="n">
-        <v>392.1582196421389</v>
+        <v>392.1462277858231</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28266,28 +28551,28 @@
         <v>0.0711</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03890905942320612</v>
+        <v>0.04462202869760266</v>
       </c>
       <c r="J8" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K8" t="n">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006215344230385833</v>
+        <v>0.0008346862375046005</v>
       </c>
       <c r="M8" t="n">
-        <v>9.138968697794501</v>
+        <v>9.088386255747247</v>
       </c>
       <c r="N8" t="n">
-        <v>141.7406074209239</v>
+        <v>140.3776737153861</v>
       </c>
       <c r="O8" t="n">
-        <v>11.90548644201168</v>
+        <v>11.84810844461622</v>
       </c>
       <c r="P8" t="n">
-        <v>387.7847606805295</v>
+        <v>387.7310850084522</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28344,28 +28629,28 @@
         <v>0.0761</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02837129599495364</v>
+        <v>-0.01497642828268074</v>
       </c>
       <c r="J9" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K9" t="n">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002946615033743161</v>
+        <v>8.357911363032766e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>9.556313096012238</v>
+        <v>9.535175233162208</v>
       </c>
       <c r="N9" t="n">
-        <v>156.3137278278206</v>
+        <v>155.4139311885984</v>
       </c>
       <c r="O9" t="n">
-        <v>12.50254885324671</v>
+        <v>12.46651239074499</v>
       </c>
       <c r="P9" t="n">
-        <v>384.0041627408104</v>
+        <v>383.8767502207222</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28422,28 +28707,28 @@
         <v>0.0554</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1121263267526602</v>
+        <v>-0.0909744254294766</v>
       </c>
       <c r="J10" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K10" t="n">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004548947510145895</v>
+        <v>0.00304725960961727</v>
       </c>
       <c r="M10" t="n">
-        <v>9.529264392859318</v>
+        <v>9.518011062314718</v>
       </c>
       <c r="N10" t="n">
-        <v>155.7369015031607</v>
+        <v>155.1296239769866</v>
       </c>
       <c r="O10" t="n">
-        <v>12.4794591831201</v>
+        <v>12.45510433424733</v>
       </c>
       <c r="P10" t="n">
-        <v>382.1949896115531</v>
+        <v>381.9927694665628</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28500,28 +28785,28 @@
         <v>0.0646</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1135810490742688</v>
+        <v>-0.09374264990355693</v>
       </c>
       <c r="J11" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K11" t="n">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004065173429205649</v>
+        <v>0.002821485371174992</v>
       </c>
       <c r="M11" t="n">
-        <v>9.959027652921041</v>
+        <v>9.94489418453492</v>
       </c>
       <c r="N11" t="n">
-        <v>176.9177835333028</v>
+        <v>176.0660725654246</v>
       </c>
       <c r="O11" t="n">
-        <v>13.30104445272261</v>
+        <v>13.26898913125731</v>
       </c>
       <c r="P11" t="n">
-        <v>379.2079144494716</v>
+        <v>379.0180550778708</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28578,28 +28863,28 @@
         <v>0.0701</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1029100993349678</v>
+        <v>-0.08156450137714021</v>
       </c>
       <c r="J12" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K12" t="n">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002548557190554024</v>
+        <v>0.001631385197190305</v>
       </c>
       <c r="M12" t="n">
-        <v>11.41473485735426</v>
+        <v>11.40373198289301</v>
       </c>
       <c r="N12" t="n">
-        <v>230.9240986720297</v>
+        <v>229.8468854935259</v>
       </c>
       <c r="O12" t="n">
-        <v>15.1961869780557</v>
+        <v>15.16070201189661</v>
       </c>
       <c r="P12" t="n">
-        <v>377.7291361917916</v>
+        <v>377.5241392897031</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28637,7 +28922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M534"/>
+  <dimension ref="A1:M539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59599,6 +59884,341 @@
         </is>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:26+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>-42.05965185212294,171.36378130305755</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>-42.058991079404656,171.3639055576682</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>-42.05832830533835,171.36400539042765</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>-42.05766261000042,171.36406953685594</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>-42.05699476888202,171.3641074933366</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>-42.056328339703015,171.3641628243419</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>-42.05567413462895,171.36436792406926</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>-42.0550118205797,171.36447381447888</t>
+        </is>
+      </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>-42.05434339344524,171.36450493515338</t>
+        </is>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>-42.05368713360035,171.36468512909167</t>
+        </is>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>-42.053020777281176,171.36474177669436</t>
+        </is>
+      </c>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:13:28+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>-42.05966004845963,171.36388166878078</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>-42.05899009850436,171.36389354640716</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>-42.0583348226272,171.3640851958694</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>-42.05766598423732,171.36411085474498</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>-42.05700029613343,171.36417517469812</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>-42.05633555591054,171.36425118661572</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>-42.05567546557594,171.36438422158935</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>-42.055016319639236,171.36452890581805</t>
+        </is>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>-42.05435111266134,171.36459945697618</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>-42.053685544657306,171.3646656724472</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>-42.053023405883174,171.36477396389782</t>
+        </is>
+      </c>
+      <c r="M536" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>-42.05965239797111,171.36378798703936</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>-42.05898920806379,171.36388264285162</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>-42.058330290004136,171.3640296929644</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>-42.05766207269322,171.3640629574897</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>-42.0570050043198,171.36423282697726</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>-42.05633592486789,171.36425570451172</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>-42.05567071444678,171.36432604388074</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>-42.05501021500589,171.36445415418083</t>
+        </is>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>-42.05435019067518,171.36458816720187</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>-42.053686538564456,171.36467784285844</t>
+        </is>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>-42.05302204581161,171.36475730982204</t>
+        </is>
+      </c>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:13:08+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>-42.05968168740728,171.36414664714533</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>-42.05900771528301,171.36410926871807</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>-42.05835168941133,171.36429173607414</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>-42.05768349275792,171.36432525142718</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>-42.05701335637533,171.36433509974145</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>-42.05635990897927,171.36454939559474</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>-42.055683320681595,171.3644804083858</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>-42.05502402750898,171.3646232900609</t>
+        </is>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>-42.05435107342789,171.36459897656027</t>
+        </is>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>-42.053699550782845,171.36483717920214</t>
+        </is>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>-42.05304186469336,171.3649999950139</t>
+        </is>
+      </c>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:19:17+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>-42.05965759562632,171.36385163324877</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>-42.05899202651719,171.36391715520844</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>-42.05831940347234,171.36389638650724</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>-42.05765027581789,171.36391850506567</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>-42.05698997235304,171.3640487600982</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>-42.05633422494636,171.3642348889299</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>-42.05567327147388,171.3643573547029</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>-42.055004905572744,171.36438914031768</t>
+        </is>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>-42.054354172862794,171.3646369294212</t>
+        </is>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>-42.05369018723887,171.36472252108223</t>
+        </is>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>-42.05302598870474,171.36480559063048</t>
+        </is>
+      </c>
+      <c r="M539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0380/nzd0380.xlsx
+++ b/data/nzd0380/nzd0380.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M539"/>
+  <dimension ref="A1:M540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22301,6 +22301,51 @@
         </is>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>397.28</v>
+      </c>
+      <c r="C540" t="n">
+        <v>399.3233333333333</v>
+      </c>
+      <c r="D540" t="n">
+        <v>400.5128571428572</v>
+      </c>
+      <c r="E540" t="n">
+        <v>393.2033333333333</v>
+      </c>
+      <c r="F540" t="n">
+        <v>385.205</v>
+      </c>
+      <c r="G540" t="n">
+        <v>373.8038461538461</v>
+      </c>
+      <c r="H540" t="n">
+        <v>371.8538461538461</v>
+      </c>
+      <c r="I540" t="n">
+        <v>386.9338461538461</v>
+      </c>
+      <c r="J540" t="n">
+        <v>388.89</v>
+      </c>
+      <c r="K540" t="n">
+        <v>386.85</v>
+      </c>
+      <c r="L540" t="n">
+        <v>391.08</v>
+      </c>
+      <c r="M540" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22312,7 +22357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B559"/>
+  <dimension ref="A1:B560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27910,6 +27955,16 @@
       </c>
       <c r="B559" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>-0.51</v>
       </c>
     </row>
   </sheetData>
@@ -28083,28 +28138,28 @@
         <v>0.1062</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06578553954118845</v>
+        <v>-0.06541803596350512</v>
       </c>
       <c r="J2" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K2" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001269195770577491</v>
+        <v>0.001260862890544834</v>
       </c>
       <c r="M2" t="n">
-        <v>11.03987701273498</v>
+        <v>11.0164926759522</v>
       </c>
       <c r="N2" t="n">
-        <v>197.3101750383162</v>
+        <v>196.8624161480543</v>
       </c>
       <c r="O2" t="n">
-        <v>14.04671402991875</v>
+        <v>14.03076676978326</v>
       </c>
       <c r="P2" t="n">
-        <v>398.107496076064</v>
+        <v>398.1039878561566</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28161,28 +28216,28 @@
         <v>0.1014</v>
       </c>
       <c r="I3" t="n">
-        <v>0.009381322469698335</v>
+        <v>0.01029527684269397</v>
       </c>
       <c r="J3" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K3" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L3" t="n">
-        <v>2.840962744754538e-05</v>
+        <v>3.436737134310253e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>10.24689731517531</v>
+        <v>10.22865483380227</v>
       </c>
       <c r="N3" t="n">
-        <v>177.2701283727638</v>
+        <v>176.8841350371248</v>
       </c>
       <c r="O3" t="n">
-        <v>13.31428287114119</v>
+        <v>13.29977951084622</v>
       </c>
       <c r="P3" t="n">
-        <v>396.8994267077504</v>
+        <v>396.8906004047956</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28239,28 +28294,28 @@
         <v>0.1217</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007852417959112994</v>
+        <v>0.01002192322539793</v>
       </c>
       <c r="J4" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K4" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L4" t="n">
-        <v>2.310331597632498e-05</v>
+        <v>3.779087375266332e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>9.670658907330974</v>
+        <v>9.660909808015511</v>
       </c>
       <c r="N4" t="n">
-        <v>154.5463844371472</v>
+        <v>154.2497360701987</v>
       </c>
       <c r="O4" t="n">
-        <v>12.43166861033334</v>
+        <v>12.41973172295596</v>
       </c>
       <c r="P4" t="n">
-        <v>395.213768493622</v>
+        <v>395.192939450368</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28317,28 +28372,28 @@
         <v>0.1091</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01062986212786952</v>
+        <v>0.01024973418476038</v>
       </c>
       <c r="J5" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K5" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L5" t="n">
-        <v>4.734034006015353e-05</v>
+        <v>4.42185121760641e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>9.257403204771926</v>
+        <v>9.237778643044535</v>
       </c>
       <c r="N5" t="n">
-        <v>142.497833718801</v>
+        <v>142.1667614702033</v>
       </c>
       <c r="O5" t="n">
-        <v>11.93724565043381</v>
+        <v>11.92337039054827</v>
       </c>
       <c r="P5" t="n">
-        <v>393.826700027516</v>
+        <v>393.8302611910492</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28395,28 +28450,28 @@
         <v>0.0862</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09028797542898331</v>
+        <v>-0.09304577095108434</v>
       </c>
       <c r="J6" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K6" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003491739871348765</v>
+        <v>0.003722146749835287</v>
       </c>
       <c r="M6" t="n">
-        <v>9.028270051031216</v>
+        <v>9.020411924740934</v>
       </c>
       <c r="N6" t="n">
-        <v>138.1844736983013</v>
+        <v>137.965925382979</v>
       </c>
       <c r="O6" t="n">
-        <v>11.75518922426608</v>
+        <v>11.7458897229192</v>
       </c>
       <c r="P6" t="n">
-        <v>394.0674600982943</v>
+        <v>394.0931741105712</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28473,28 +28528,28 @@
         <v>0.0701</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03243157877977661</v>
+        <v>-0.03993117245185421</v>
       </c>
       <c r="J7" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K7" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005111268505960664</v>
+        <v>0.0007737288771649808</v>
       </c>
       <c r="M7" t="n">
-        <v>8.519495303781284</v>
+        <v>8.538404028097803</v>
       </c>
       <c r="N7" t="n">
-        <v>122.8781882743391</v>
+        <v>123.3072500100886</v>
       </c>
       <c r="O7" t="n">
-        <v>11.08504344936632</v>
+        <v>11.10437976701484</v>
       </c>
       <c r="P7" t="n">
-        <v>392.1462277858231</v>
+        <v>392.216474289234</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28551,28 +28606,28 @@
         <v>0.0711</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04462202869760266</v>
+        <v>0.03733015355725865</v>
       </c>
       <c r="J8" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K8" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0008346862375046005</v>
+        <v>0.0005842185206962336</v>
       </c>
       <c r="M8" t="n">
-        <v>9.088386255747247</v>
+        <v>9.106945743688724</v>
       </c>
       <c r="N8" t="n">
-        <v>140.3776737153861</v>
+        <v>140.723862888412</v>
       </c>
       <c r="O8" t="n">
-        <v>11.84810844461622</v>
+        <v>11.86270891864131</v>
       </c>
       <c r="P8" t="n">
-        <v>387.7310850084522</v>
+        <v>387.8002461400637</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28629,28 +28684,28 @@
         <v>0.0761</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01497642828268074</v>
+        <v>-0.01347812650812375</v>
       </c>
       <c r="J9" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K9" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L9" t="n">
-        <v>8.357911363032766e-05</v>
+        <v>6.800077426949436e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>9.535175233162208</v>
+        <v>9.520477686914493</v>
       </c>
       <c r="N9" t="n">
-        <v>155.4139311885984</v>
+        <v>155.0767333433873</v>
       </c>
       <c r="O9" t="n">
-        <v>12.46651239074499</v>
+        <v>12.45298090191209</v>
       </c>
       <c r="P9" t="n">
-        <v>383.8767502207222</v>
+        <v>383.862398586237</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28707,28 +28762,28 @@
         <v>0.0554</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0909744254294766</v>
+        <v>-0.08691820215638509</v>
       </c>
       <c r="J10" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K10" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00304725960961727</v>
+        <v>0.002791962597047726</v>
       </c>
       <c r="M10" t="n">
-        <v>9.518011062314718</v>
+        <v>9.515255830690649</v>
       </c>
       <c r="N10" t="n">
-        <v>155.1296239769866</v>
+        <v>154.9647936750032</v>
       </c>
       <c r="O10" t="n">
-        <v>12.45510433424733</v>
+        <v>12.44848559765417</v>
       </c>
       <c r="P10" t="n">
-        <v>381.9927694665628</v>
+        <v>381.9536873310277</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28785,28 +28840,28 @@
         <v>0.0646</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.09374264990355693</v>
+        <v>-0.08916308349364557</v>
       </c>
       <c r="J11" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K11" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002821485371174992</v>
+        <v>0.002562121816307106</v>
       </c>
       <c r="M11" t="n">
-        <v>9.94489418453492</v>
+        <v>9.944097619982514</v>
       </c>
       <c r="N11" t="n">
-        <v>176.0660725654246</v>
+        <v>175.8977556958365</v>
       </c>
       <c r="O11" t="n">
-        <v>13.26898913125731</v>
+        <v>13.26264512440246</v>
       </c>
       <c r="P11" t="n">
-        <v>379.0180550778708</v>
+        <v>378.9738690706523</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28863,28 +28918,28 @@
         <v>0.0701</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.08156450137714021</v>
+        <v>-0.07423303897789764</v>
       </c>
       <c r="J12" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K12" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001631385197190305</v>
+        <v>0.001355039024538707</v>
       </c>
       <c r="M12" t="n">
-        <v>11.40373198289301</v>
+        <v>11.409298238494</v>
       </c>
       <c r="N12" t="n">
-        <v>229.8468854935259</v>
+        <v>229.8797035181993</v>
       </c>
       <c r="O12" t="n">
-        <v>15.16070201189661</v>
+        <v>15.16178431182159</v>
       </c>
       <c r="P12" t="n">
-        <v>377.5241392897031</v>
+        <v>377.4531214425572</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28922,7 +28977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M539"/>
+  <dimension ref="A1:M540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60219,6 +60274,73 @@
         </is>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>-42.05965289938942,171.36379412697625</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>-42.05898704353689,171.3638561380045</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>-42.05832201827188,171.36392840476097</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>-42.05766532268751,171.36410275398276</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>-42.05700929561039,171.36428537463573</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>-42.056356599023246,171.36450886384554</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>-42.055694625223126,171.36461883574628</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>-42.05501594088327,171.36452426790856</t>
+        </is>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>-42.05435012201659,171.364587326474</t>
+        </is>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>-42.05368821577984,171.36469838042834</t>
+        </is>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>-42.05302015282341,171.36473413023228</t>
+        </is>
+      </c>
+      <c r="M540" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0380/nzd0380.xlsx
+++ b/data/nzd0380/nzd0380.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31214,7 +31214,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-42.057004710059005,171.36422922370954</t>
+          <t>-42.057004710059,171.36422922370954</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -33619,7 +33619,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>-42.055686485034414,171.36451915658495</t>
+          <t>-42.05568648503441,171.36451915658495</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -39001,7 +39001,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>-42.05631433113359,171.3639912922035</t>
+          <t>-42.056314331133585,171.3639912922035</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -45050,7 +45050,7 @@
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="inlineStr">
         <is>
-          <t>-42.05634098311192,171.36431764311666</t>
+          <t>-42.05634098311193,171.36431764311666</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -46653,7 +46653,7 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>-42.05305293453594,171.3651355496989</t>
+          <t>-42.05305293453595,171.3651355496989</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
@@ -48067,7 +48067,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>-42.05898445503372,171.36382444162646</t>
+          <t>-42.058984455033716,171.36382444162646</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -48268,7 +48268,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>-42.053682059433314,171.3646229959427</t>
+          <t>-42.05368205943332,171.3646229959427</t>
         </is>
       </c>
       <c r="L339" t="inlineStr"/>
@@ -50351,7 +50351,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>-42.05434816034007,171.36456330567884</t>
+          <t>-42.05434816034006,171.36456330567884</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -59863,7 +59863,7 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>-42.05301770402864,171.36470414489304</t>
+          <t>-42.05301770402863,171.36470414489304</t>
         </is>
       </c>
       <c r="M533" t="inlineStr">

--- a/data/nzd0380/nzd0380.xlsx
+++ b/data/nzd0380/nzd0380.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M540"/>
+  <dimension ref="A1:M542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22346,6 +22346,90 @@
         </is>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:12:54+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>370.4629411764706</v>
+      </c>
+      <c r="C541" t="n">
+        <v>371.1311111111111</v>
+      </c>
+      <c r="D541" t="n">
+        <v>380.5938095238095</v>
+      </c>
+      <c r="E541" t="n">
+        <v>378.2011111111111</v>
+      </c>
+      <c r="F541" t="n">
+        <v>375.275</v>
+      </c>
+      <c r="G541" t="n">
+        <v>371.8123076923077</v>
+      </c>
+      <c r="H541" t="n">
+        <v>387.4423076923077</v>
+      </c>
+      <c r="I541" t="n">
+        <v>386.5423076923077</v>
+      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="inlineStr"/>
+      <c r="M541" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>382.0294117647059</v>
+      </c>
+      <c r="C542" t="n">
+        <v>374.4822222222222</v>
+      </c>
+      <c r="D542" t="n">
+        <v>385.2061904761905</v>
+      </c>
+      <c r="E542" t="n">
+        <v>385.9322222222222</v>
+      </c>
+      <c r="F542" t="n">
+        <v>380.935</v>
+      </c>
+      <c r="G542" t="n">
+        <v>383.8807692307692</v>
+      </c>
+      <c r="H542" t="n">
+        <v>401.1607692307692</v>
+      </c>
+      <c r="I542" t="n">
+        <v>400.1907692307692</v>
+      </c>
+      <c r="J542" t="n">
+        <v>397.23</v>
+      </c>
+      <c r="K542" t="n">
+        <v>382.8733333333333</v>
+      </c>
+      <c r="L542" t="n">
+        <v>378.4133333333333</v>
+      </c>
+      <c r="M542" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22357,7 +22441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B560"/>
+  <dimension ref="A1:B562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27965,6 +28049,26 @@
       </c>
       <c r="B560" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -28138,28 +28242,28 @@
         <v>0.1062</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06541803596350512</v>
+        <v>-0.08239187185908188</v>
       </c>
       <c r="J2" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K2" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001260862890544834</v>
+        <v>0.001996956360321933</v>
       </c>
       <c r="M2" t="n">
-        <v>11.0164926759522</v>
+        <v>11.0671574603991</v>
       </c>
       <c r="N2" t="n">
-        <v>196.8624161480543</v>
+        <v>197.9413159033231</v>
       </c>
       <c r="O2" t="n">
-        <v>14.03076676978326</v>
+        <v>14.06916187636361</v>
       </c>
       <c r="P2" t="n">
-        <v>398.1039878561566</v>
+        <v>398.2664452255841</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28216,28 +28320,28 @@
         <v>0.1014</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01029527684269397</v>
+        <v>-0.00992442960488232</v>
       </c>
       <c r="J3" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K3" t="n">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L3" t="n">
-        <v>3.436737134310253e-05</v>
+        <v>3.175280136025194e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>10.22865483380227</v>
+        <v>10.29628401046521</v>
       </c>
       <c r="N3" t="n">
-        <v>176.8841350371248</v>
+        <v>178.7143759623329</v>
       </c>
       <c r="O3" t="n">
-        <v>13.29977951084622</v>
+        <v>13.3684096272643</v>
       </c>
       <c r="P3" t="n">
-        <v>396.8906004047956</v>
+        <v>397.0863953549611</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28294,28 +28398,28 @@
         <v>0.1217</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01002192322539793</v>
+        <v>-0.0005679386052261188</v>
       </c>
       <c r="J4" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K4" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L4" t="n">
-        <v>3.779087375266332e-05</v>
+        <v>1.218963513460736e-07</v>
       </c>
       <c r="M4" t="n">
-        <v>9.660909808015511</v>
+        <v>9.670028488731166</v>
       </c>
       <c r="N4" t="n">
-        <v>154.2497360701987</v>
+        <v>154.2793592704332</v>
       </c>
       <c r="O4" t="n">
-        <v>12.41973172295596</v>
+        <v>12.42092425185957</v>
       </c>
       <c r="P4" t="n">
-        <v>395.192939450368</v>
+        <v>395.294885463661</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28372,28 +28476,28 @@
         <v>0.1091</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01024973418476038</v>
+        <v>0.0001484905123515542</v>
       </c>
       <c r="J5" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K5" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L5" t="n">
-        <v>4.42185121760641e-05</v>
+        <v>9.318568361393886e-09</v>
       </c>
       <c r="M5" t="n">
-        <v>9.237778643044535</v>
+        <v>9.247584096505493</v>
       </c>
       <c r="N5" t="n">
-        <v>142.1667614702033</v>
+        <v>142.2386423960639</v>
       </c>
       <c r="O5" t="n">
-        <v>11.92337039054827</v>
+        <v>11.92638429684638</v>
       </c>
       <c r="P5" t="n">
-        <v>393.8302611910492</v>
+        <v>393.9251496567829</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28450,28 +28554,28 @@
         <v>0.0862</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09304577095108434</v>
+        <v>-0.104403239677397</v>
       </c>
       <c r="J6" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K6" t="n">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003722146749835287</v>
+        <v>0.004695807426083332</v>
       </c>
       <c r="M6" t="n">
-        <v>9.020411924740934</v>
+        <v>9.032369792417382</v>
       </c>
       <c r="N6" t="n">
-        <v>137.965925382979</v>
+        <v>138.2030215679447</v>
       </c>
       <c r="O6" t="n">
-        <v>11.7458897229192</v>
+        <v>11.75597812042642</v>
       </c>
       <c r="P6" t="n">
-        <v>394.0931741105712</v>
+        <v>394.1993582881016</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28528,28 +28632,28 @@
         <v>0.0701</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03993117245185421</v>
+        <v>-0.05125176649943053</v>
       </c>
       <c r="J7" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K7" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007737288771649808</v>
+        <v>0.001275523801580247</v>
       </c>
       <c r="M7" t="n">
-        <v>8.538404028097803</v>
+        <v>8.557538810741775</v>
       </c>
       <c r="N7" t="n">
-        <v>123.3072500100886</v>
+        <v>123.7241584377975</v>
       </c>
       <c r="O7" t="n">
-        <v>11.10437976701484</v>
+        <v>11.12313617815576</v>
       </c>
       <c r="P7" t="n">
-        <v>392.216474289234</v>
+        <v>392.3227918228425</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28606,28 +28710,28 @@
         <v>0.0711</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03733015355725865</v>
+        <v>0.0420371841124705</v>
       </c>
       <c r="J8" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K8" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0005842185206962336</v>
+        <v>0.0007456641855012602</v>
       </c>
       <c r="M8" t="n">
-        <v>9.106945743688724</v>
+        <v>9.096478704430938</v>
       </c>
       <c r="N8" t="n">
-        <v>140.723862888412</v>
+        <v>140.4274685636217</v>
       </c>
       <c r="O8" t="n">
-        <v>11.86270891864131</v>
+        <v>11.85020964218025</v>
       </c>
       <c r="P8" t="n">
-        <v>387.8002461400637</v>
+        <v>387.7554456788482</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28684,28 +28788,28 @@
         <v>0.0761</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01347812650812375</v>
+        <v>-0.004975060155981702</v>
       </c>
       <c r="J9" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K9" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L9" t="n">
-        <v>6.800077426949436e-05</v>
+        <v>9.312828741614432e-06</v>
       </c>
       <c r="M9" t="n">
-        <v>9.520477686914493</v>
+        <v>9.519239964337832</v>
       </c>
       <c r="N9" t="n">
-        <v>155.0767333433873</v>
+        <v>155.0169003008401</v>
       </c>
       <c r="O9" t="n">
-        <v>12.45298090191209</v>
+        <v>12.45057831190343</v>
       </c>
       <c r="P9" t="n">
-        <v>383.862398586237</v>
+        <v>383.7806963784105</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28762,28 +28866,28 @@
         <v>0.0554</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.08691820215638509</v>
+        <v>-0.07923627483558561</v>
       </c>
       <c r="J10" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K10" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002791962597047726</v>
+        <v>0.002321735714496675</v>
       </c>
       <c r="M10" t="n">
-        <v>9.515255830690649</v>
+        <v>9.530411178814909</v>
       </c>
       <c r="N10" t="n">
-        <v>154.9647936750032</v>
+        <v>155.3147207751585</v>
       </c>
       <c r="O10" t="n">
-        <v>12.44848559765417</v>
+        <v>12.46253267900063</v>
       </c>
       <c r="P10" t="n">
-        <v>381.9536873310277</v>
+        <v>381.8794329005171</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28840,28 +28944,28 @@
         <v>0.0646</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08916308349364557</v>
+        <v>-0.08639559129781454</v>
       </c>
       <c r="J11" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K11" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002562121816307106</v>
+        <v>0.002416440430577205</v>
       </c>
       <c r="M11" t="n">
-        <v>9.944097619982514</v>
+        <v>9.934527787348854</v>
       </c>
       <c r="N11" t="n">
-        <v>175.8977556958365</v>
+        <v>175.5759395947865</v>
       </c>
       <c r="O11" t="n">
-        <v>13.26264512440246</v>
+        <v>13.25050714481474</v>
       </c>
       <c r="P11" t="n">
-        <v>378.9738690706523</v>
+        <v>378.9470832131001</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28918,28 +29022,28 @@
         <v>0.0701</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.07423303897789764</v>
+        <v>-0.07288882073730667</v>
       </c>
       <c r="J12" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K12" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001355039024538707</v>
+        <v>0.001313027308923354</v>
       </c>
       <c r="M12" t="n">
-        <v>11.409298238494</v>
+        <v>11.38749641697406</v>
       </c>
       <c r="N12" t="n">
-        <v>229.8797035181993</v>
+        <v>229.3377125114762</v>
       </c>
       <c r="O12" t="n">
-        <v>15.16178431182159</v>
+        <v>15.14390017503669</v>
       </c>
       <c r="P12" t="n">
-        <v>377.4531214425572</v>
+        <v>377.4400596491706</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28977,7 +29081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M540"/>
+  <dimension ref="A1:M542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60341,6 +60445,128 @@
         </is>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:12:54+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>-42.05967920406273,171.36411623711786</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>-42.05901469692609,171.36419476226632</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>-42.05834155658718,171.36416765521994</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>-42.057680037949126,171.36428294594018</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>-42.0570190355251,171.3644046428359</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>-42.05635855240453,171.36453278376717</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>-42.055679335419505,171.36443160820397</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>-42.055016324920686,171.36452897049008</t>
+        </is>
+      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="inlineStr"/>
+      <c r="M541" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>-42.059667858699584,171.36397730769716</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>-42.05901140991627,171.36415451116451</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>-42.05833703241136,171.3641122552546</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>-42.057672454752904,171.3641900874159</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>-42.05701348388693,171.36433666115792</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>-42.05634671509438,171.3643878322082</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>-42.055665879537216,171.3642668406578</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>-42.05500293782126,171.36436504537187</t>
+        </is>
+      </c>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>-42.05434194179237,171.36448715976894</t>
+        </is>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>-42.05369211619057,171.36474614129241</t>
+        </is>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>-42.053032576495156,171.36488625882845</t>
+        </is>
+      </c>
+      <c r="M542" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0380/nzd0380.xlsx
+++ b/data/nzd0380/nzd0380.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M542"/>
+  <dimension ref="A1:M543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22430,6 +22430,51 @@
         </is>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:27+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>397.3217647058824</v>
+      </c>
+      <c r="C543" t="n">
+        <v>394.3555555555556</v>
+      </c>
+      <c r="D543" t="n">
+        <v>387.6361904761905</v>
+      </c>
+      <c r="E543" t="n">
+        <v>388.6755555555556</v>
+      </c>
+      <c r="F543" t="n">
+        <v>392.915</v>
+      </c>
+      <c r="G543" t="n">
+        <v>393.5938461538461</v>
+      </c>
+      <c r="H543" t="n">
+        <v>390.5538461538461</v>
+      </c>
+      <c r="I543" t="n">
+        <v>397.2838461538461</v>
+      </c>
+      <c r="J543" t="n">
+        <v>396.85</v>
+      </c>
+      <c r="K543" t="n">
+        <v>395.9233333333333</v>
+      </c>
+      <c r="L543" t="n">
+        <v>391.7633333333333</v>
+      </c>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22441,7 +22486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B562"/>
+  <dimension ref="A1:B563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28069,6 +28114,16 @@
       </c>
       <c r="B562" t="n">
         <v>0.47</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
@@ -28242,28 +28297,28 @@
         <v>0.1062</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.08239187185908188</v>
+        <v>-0.08188904254140106</v>
       </c>
       <c r="J2" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K2" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001996956360321933</v>
+        <v>0.001981822708237546</v>
       </c>
       <c r="M2" t="n">
-        <v>11.0671574603991</v>
+        <v>11.04451633002621</v>
       </c>
       <c r="N2" t="n">
-        <v>197.9413159033231</v>
+        <v>197.4966664211826</v>
       </c>
       <c r="O2" t="n">
-        <v>14.06916187636361</v>
+        <v>14.05335071864296</v>
       </c>
       <c r="P2" t="n">
-        <v>398.2664452255841</v>
+        <v>398.261602463212</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28320,28 +28375,28 @@
         <v>0.1014</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.00992442960488232</v>
+        <v>-0.01095596299928635</v>
       </c>
       <c r="J3" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K3" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L3" t="n">
-        <v>3.175280136025194e-05</v>
+        <v>3.886936265673491e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>10.29628401046521</v>
+        <v>10.27920674097991</v>
       </c>
       <c r="N3" t="n">
-        <v>178.7143759623329</v>
+        <v>178.3307396042142</v>
       </c>
       <c r="O3" t="n">
-        <v>13.3684096272643</v>
+        <v>13.35405330243272</v>
       </c>
       <c r="P3" t="n">
-        <v>397.0863953549611</v>
+        <v>397.0964450892316</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28398,28 +28453,28 @@
         <v>0.1217</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0005679386052261188</v>
+        <v>-0.0038065580509119</v>
       </c>
       <c r="J4" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K4" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L4" t="n">
-        <v>1.218963513460736e-07</v>
+        <v>5.496371321189741e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>9.670028488731166</v>
+        <v>9.664257877804376</v>
       </c>
       <c r="N4" t="n">
-        <v>154.2793592704332</v>
+        <v>154.0591064481735</v>
       </c>
       <c r="O4" t="n">
-        <v>12.42092425185957</v>
+        <v>12.41205488419115</v>
       </c>
       <c r="P4" t="n">
-        <v>395.294885463661</v>
+        <v>395.3262590895004</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28476,28 +28531,28 @@
         <v>0.1091</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001484905123515542</v>
+        <v>-0.00206682477104833</v>
       </c>
       <c r="J5" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K5" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L5" t="n">
-        <v>9.318568361393886e-09</v>
+        <v>1.812919695698412e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>9.247584096505493</v>
+        <v>9.237538340261789</v>
       </c>
       <c r="N5" t="n">
-        <v>142.2386423960639</v>
+        <v>141.9722120553703</v>
       </c>
       <c r="O5" t="n">
-        <v>11.92638429684638</v>
+        <v>11.91520927451005</v>
       </c>
       <c r="P5" t="n">
-        <v>393.9251496567829</v>
+        <v>393.946096321621</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28554,28 +28609,28 @@
         <v>0.0862</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.104403239677397</v>
+        <v>-0.1038072051892181</v>
       </c>
       <c r="J6" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K6" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004695807426083332</v>
+        <v>0.004664101590107217</v>
       </c>
       <c r="M6" t="n">
-        <v>9.032369792417382</v>
+        <v>9.015505664949517</v>
       </c>
       <c r="N6" t="n">
-        <v>138.2030215679447</v>
+        <v>137.8941802328777</v>
       </c>
       <c r="O6" t="n">
-        <v>11.75597812042642</v>
+        <v>11.74283527232149</v>
       </c>
       <c r="P6" t="n">
-        <v>394.1993582881016</v>
+        <v>394.1937504971088</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28632,28 +28687,28 @@
         <v>0.0701</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05125176649943053</v>
+        <v>-0.05014431166668127</v>
       </c>
       <c r="J7" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K7" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001275523801580247</v>
+        <v>0.001226634761402945</v>
       </c>
       <c r="M7" t="n">
-        <v>8.557538810741775</v>
+        <v>8.54384224222094</v>
       </c>
       <c r="N7" t="n">
-        <v>123.7241584377975</v>
+        <v>123.4494700857683</v>
       </c>
       <c r="O7" t="n">
-        <v>11.12313617815576</v>
+        <v>11.11078170453224</v>
       </c>
       <c r="P7" t="n">
-        <v>392.3227918228425</v>
+        <v>392.3123220525158</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28710,28 +28765,28 @@
         <v>0.0711</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0420371841124705</v>
+        <v>0.0427656292489325</v>
       </c>
       <c r="J8" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K8" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007456641855012602</v>
+        <v>0.0007752692928824079</v>
       </c>
       <c r="M8" t="n">
-        <v>9.096478704430938</v>
+        <v>9.07923855904327</v>
       </c>
       <c r="N8" t="n">
-        <v>140.4274685636217</v>
+        <v>140.1068948116116</v>
       </c>
       <c r="O8" t="n">
-        <v>11.85020964218025</v>
+        <v>11.8366758345243</v>
       </c>
       <c r="P8" t="n">
-        <v>387.7554456788482</v>
+        <v>387.7484730703532</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28788,28 +28843,28 @@
         <v>0.0761</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.004975060155981702</v>
+        <v>0.0009274769153277439</v>
       </c>
       <c r="J9" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K9" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L9" t="n">
-        <v>9.312828741614432e-06</v>
+        <v>3.242953431348283e-07</v>
       </c>
       <c r="M9" t="n">
-        <v>9.519239964337832</v>
+        <v>9.526703060462264</v>
       </c>
       <c r="N9" t="n">
-        <v>155.0169003008401</v>
+        <v>155.0856851884816</v>
       </c>
       <c r="O9" t="n">
-        <v>12.45057831190343</v>
+        <v>12.45334032251916</v>
       </c>
       <c r="P9" t="n">
-        <v>383.7806963784105</v>
+        <v>383.7236513661596</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28866,28 +28921,28 @@
         <v>0.0554</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.07923627483558561</v>
+        <v>-0.07174953654412826</v>
       </c>
       <c r="J10" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K10" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002321735714496675</v>
+        <v>0.0019054511894806</v>
       </c>
       <c r="M10" t="n">
-        <v>9.530411178814909</v>
+        <v>9.544585638563747</v>
       </c>
       <c r="N10" t="n">
-        <v>155.3147207751585</v>
+        <v>155.6233912541267</v>
       </c>
       <c r="O10" t="n">
-        <v>12.46253267900063</v>
+        <v>12.47491047078602</v>
       </c>
       <c r="P10" t="n">
-        <v>381.8794329005171</v>
+        <v>381.8066649037166</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28944,28 +28999,28 @@
         <v>0.0646</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08639559129781454</v>
+        <v>-0.07779488753384767</v>
       </c>
       <c r="J11" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K11" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002416440430577205</v>
+        <v>0.001960302922733081</v>
       </c>
       <c r="M11" t="n">
-        <v>9.934527787348854</v>
+        <v>9.953716155292964</v>
       </c>
       <c r="N11" t="n">
-        <v>175.5759395947865</v>
+        <v>176.0210488948716</v>
       </c>
       <c r="O11" t="n">
-        <v>13.25050714481474</v>
+        <v>13.26729244777817</v>
       </c>
       <c r="P11" t="n">
-        <v>378.9470832131001</v>
+        <v>378.8633908039482</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29022,28 +29077,28 @@
         <v>0.0701</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.07288882073730667</v>
+        <v>-0.06529126805605404</v>
       </c>
       <c r="J12" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K12" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001313027308923354</v>
+        <v>0.001056341785384052</v>
       </c>
       <c r="M12" t="n">
-        <v>11.38749641697406</v>
+        <v>11.39387038362719</v>
       </c>
       <c r="N12" t="n">
-        <v>229.3377125114762</v>
+        <v>229.4145261788534</v>
       </c>
       <c r="O12" t="n">
-        <v>15.14390017503669</v>
+        <v>15.14643608836261</v>
       </c>
       <c r="P12" t="n">
-        <v>377.4400596491706</v>
+        <v>377.3658371043499</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29081,7 +29136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M542"/>
+  <dimension ref="A1:M543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60567,6 +60622,73 @@
         </is>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:27+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>-42.059652858422005,171.36379362532432</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>-42.058991916438586,171.36391580727798</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>-42.058334648870904,171.36408306818163</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>-42.05766976388821,171.36415713719234</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>-42.0570017331142,171.36419277065315</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>-42.056337187923,171.36427117068382</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>-42.05567628345832,171.3643942366191</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>-42.055005789097564,171.3643999590228</t>
+        </is>
+      </c>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>-42.05434231451433,171.3644917237189</t>
+        </is>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>-42.05367931636128,171.36458940721533</t>
+        </is>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>-42.0530194825933,171.3647259232967</t>
+        </is>
+      </c>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0380/nzd0380.xlsx
+++ b/data/nzd0380/nzd0380.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M543"/>
+  <dimension ref="A1:M547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22475,6 +22475,180 @@
         </is>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:36+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>375.2935294117647</v>
+      </c>
+      <c r="C544" t="n">
+        <v>394.04</v>
+      </c>
+      <c r="D544" t="n">
+        <v>379.57</v>
+      </c>
+      <c r="E544" t="n">
+        <v>377.29</v>
+      </c>
+      <c r="F544" t="n">
+        <v>374.68</v>
+      </c>
+      <c r="G544" t="inlineStr"/>
+      <c r="H544" t="inlineStr"/>
+      <c r="I544" t="n">
+        <v>387.3746153846154</v>
+      </c>
+      <c r="J544" t="n">
+        <v>357.3</v>
+      </c>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="n">
+        <v>355.34</v>
+      </c>
+      <c r="M544" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:25+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>402.6723529411765</v>
+      </c>
+      <c r="C545" t="n">
+        <v>391.4611111111111</v>
+      </c>
+      <c r="D545" t="n">
+        <v>381.7280952380953</v>
+      </c>
+      <c r="E545" t="n">
+        <v>380.7111111111111</v>
+      </c>
+      <c r="F545" t="n">
+        <v>383.78</v>
+      </c>
+      <c r="G545" t="n">
+        <v>391.6138461538461</v>
+      </c>
+      <c r="H545" t="n">
+        <v>393.7338461538461</v>
+      </c>
+      <c r="I545" t="n">
+        <v>382.6438461538461</v>
+      </c>
+      <c r="J545" t="n">
+        <v>371.1</v>
+      </c>
+      <c r="K545" t="n">
+        <v>364.5166666666667</v>
+      </c>
+      <c r="L545" t="n">
+        <v>359.6466666666667</v>
+      </c>
+      <c r="M545" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:19:38+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>407.3470588235294</v>
+      </c>
+      <c r="C546" t="n">
+        <v>398.9922222222222</v>
+      </c>
+      <c r="D546" t="n">
+        <v>399.3290476190476</v>
+      </c>
+      <c r="E546" t="n">
+        <v>397.7522222222222</v>
+      </c>
+      <c r="F546" t="n">
+        <v>387.82</v>
+      </c>
+      <c r="G546" t="n">
+        <v>386.2515384615385</v>
+      </c>
+      <c r="H546" t="n">
+        <v>395.5515384615384</v>
+      </c>
+      <c r="I546" t="n">
+        <v>390.8415384615385</v>
+      </c>
+      <c r="J546" t="n">
+        <v>376.21</v>
+      </c>
+      <c r="K546" t="n">
+        <v>368.5533333333333</v>
+      </c>
+      <c r="L546" t="n">
+        <v>369.0833333333333</v>
+      </c>
+      <c r="M546" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:42+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>398.8788235294118</v>
+      </c>
+      <c r="C547" t="n">
+        <v>396.8144444444445</v>
+      </c>
+      <c r="D547" t="n">
+        <v>396.0923809523809</v>
+      </c>
+      <c r="E547" t="n">
+        <v>399.6244444444445</v>
+      </c>
+      <c r="F547" t="n">
+        <v>396.81</v>
+      </c>
+      <c r="G547" t="n">
+        <v>395.1015384615384</v>
+      </c>
+      <c r="H547" t="n">
+        <v>393.2715384615385</v>
+      </c>
+      <c r="I547" t="n">
+        <v>387.6915384615385</v>
+      </c>
+      <c r="J547" t="n">
+        <v>384.09</v>
+      </c>
+      <c r="K547" t="n">
+        <v>374.4166666666667</v>
+      </c>
+      <c r="L547" t="n">
+        <v>375.3166666666667</v>
+      </c>
+      <c r="M547" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22486,7 +22660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B563"/>
+  <dimension ref="A1:B567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28124,6 +28298,46 @@
       </c>
       <c r="B563" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -28297,28 +28511,28 @@
         <v>0.1062</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.08188904254140106</v>
+        <v>-0.08201823656848273</v>
       </c>
       <c r="J2" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K2" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001981822708237546</v>
+        <v>0.002010745492713517</v>
       </c>
       <c r="M2" t="n">
-        <v>11.04451633002621</v>
+        <v>11.03823384826181</v>
       </c>
       <c r="N2" t="n">
-        <v>197.4966664211826</v>
+        <v>197.094018799481</v>
       </c>
       <c r="O2" t="n">
-        <v>14.05335071864296</v>
+        <v>14.03901772915331</v>
       </c>
       <c r="P2" t="n">
-        <v>398.261602463212</v>
+        <v>398.2627702961614</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28375,28 +28589,28 @@
         <v>0.1014</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01095596299928635</v>
+        <v>-0.01337584511695812</v>
       </c>
       <c r="J3" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K3" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L3" t="n">
-        <v>3.886936265673491e-05</v>
+        <v>5.895454691540181e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>10.27920674097991</v>
+        <v>10.21205419202713</v>
       </c>
       <c r="N3" t="n">
-        <v>178.3307396042142</v>
+        <v>176.8494969967134</v>
       </c>
       <c r="O3" t="n">
-        <v>13.35405330243272</v>
+        <v>13.29847724353106</v>
       </c>
       <c r="P3" t="n">
-        <v>397.0964450892316</v>
+        <v>397.1200654220456</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28453,28 +28667,28 @@
         <v>0.1217</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0038065580509119</v>
+        <v>-0.01381600049222856</v>
       </c>
       <c r="J4" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K4" t="n">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L4" t="n">
-        <v>5.496371321189741e-06</v>
+        <v>7.325186771367509e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>9.664257877804376</v>
+        <v>9.650874229773892</v>
       </c>
       <c r="N4" t="n">
-        <v>154.0591064481735</v>
+        <v>153.6618100707622</v>
       </c>
       <c r="O4" t="n">
-        <v>12.41205488419115</v>
+        <v>12.39604009636796</v>
       </c>
       <c r="P4" t="n">
-        <v>395.3262590895004</v>
+        <v>395.4234205395986</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28531,28 +28745,28 @@
         <v>0.1091</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.00206682477104833</v>
+        <v>-0.01037162892403568</v>
       </c>
       <c r="J5" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K5" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L5" t="n">
-        <v>1.812919695698412e-06</v>
+        <v>4.612268769821348e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>9.237538340261789</v>
+        <v>9.240551425062211</v>
       </c>
       <c r="N5" t="n">
-        <v>141.9722120553703</v>
+        <v>141.8032324457783</v>
       </c>
       <c r="O5" t="n">
-        <v>11.91520927451005</v>
+        <v>11.9081162425372</v>
       </c>
       <c r="P5" t="n">
-        <v>393.946096321621</v>
+        <v>394.0247383281099</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28609,28 +28823,28 @@
         <v>0.0862</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1038072051892181</v>
+        <v>-0.1131874779770259</v>
       </c>
       <c r="J6" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K6" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004664101590107217</v>
+        <v>0.005608095354770137</v>
       </c>
       <c r="M6" t="n">
-        <v>9.015505664949517</v>
+        <v>9.002971575860059</v>
       </c>
       <c r="N6" t="n">
-        <v>137.8941802328777</v>
+        <v>137.5102226380477</v>
       </c>
       <c r="O6" t="n">
-        <v>11.74283527232149</v>
+        <v>11.72647528620803</v>
       </c>
       <c r="P6" t="n">
-        <v>394.1937504971088</v>
+        <v>394.2821753020039</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28687,28 +28901,28 @@
         <v>0.0701</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05014431166668127</v>
+        <v>-0.05016757623767084</v>
       </c>
       <c r="J7" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K7" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001226634761402945</v>
+        <v>0.001244078923676173</v>
       </c>
       <c r="M7" t="n">
-        <v>8.54384224222094</v>
+        <v>8.506127362182644</v>
       </c>
       <c r="N7" t="n">
-        <v>123.4494700857683</v>
+        <v>122.67885855455</v>
       </c>
       <c r="O7" t="n">
-        <v>11.11078170453224</v>
+        <v>11.07604886927419</v>
       </c>
       <c r="P7" t="n">
-        <v>392.3123220525158</v>
+        <v>392.3125261114368</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28765,28 +28979,28 @@
         <v>0.0711</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0427656292489325</v>
+        <v>0.04947538772146808</v>
       </c>
       <c r="J8" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K8" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007752692928824079</v>
+        <v>0.001050321903402707</v>
       </c>
       <c r="M8" t="n">
-        <v>9.07923855904327</v>
+        <v>9.052375254155516</v>
       </c>
       <c r="N8" t="n">
-        <v>140.1068948116116</v>
+        <v>139.3336081359639</v>
       </c>
       <c r="O8" t="n">
-        <v>11.8366758345243</v>
+        <v>11.80396578002342</v>
       </c>
       <c r="P8" t="n">
-        <v>387.7484730703532</v>
+        <v>387.6840266946308</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28843,28 +29057,28 @@
         <v>0.0761</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0009274769153277439</v>
+        <v>0.006672899087049479</v>
       </c>
       <c r="J9" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K9" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L9" t="n">
-        <v>3.242953431348283e-07</v>
+        <v>1.708242108844349e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>9.526703060462264</v>
+        <v>9.47275067206756</v>
       </c>
       <c r="N9" t="n">
-        <v>155.0856851884816</v>
+        <v>153.8354247845593</v>
       </c>
       <c r="O9" t="n">
-        <v>12.45334032251916</v>
+        <v>12.40304094908016</v>
       </c>
       <c r="P9" t="n">
-        <v>383.7236513661596</v>
+        <v>383.6679323998562</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28921,28 +29135,28 @@
         <v>0.0554</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.07174953654412826</v>
+        <v>-0.0850844355420684</v>
       </c>
       <c r="J10" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K10" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0019054511894806</v>
+        <v>0.00270385019891406</v>
       </c>
       <c r="M10" t="n">
-        <v>9.544585638563747</v>
+        <v>9.552361437216698</v>
       </c>
       <c r="N10" t="n">
-        <v>155.6233912541267</v>
+        <v>155.6070811110002</v>
       </c>
       <c r="O10" t="n">
-        <v>12.47491047078602</v>
+        <v>12.47425673581397</v>
       </c>
       <c r="P10" t="n">
-        <v>381.8066649037166</v>
+        <v>381.9365384973785</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28999,28 +29213,28 @@
         <v>0.0646</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.07779488753384767</v>
+        <v>-0.08794051836327324</v>
       </c>
       <c r="J11" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K11" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001960302922733081</v>
+        <v>0.002533108152071306</v>
       </c>
       <c r="M11" t="n">
-        <v>9.953716155292964</v>
+        <v>9.93969850477265</v>
       </c>
       <c r="N11" t="n">
-        <v>176.0210488948716</v>
+        <v>175.3143565986024</v>
       </c>
       <c r="O11" t="n">
-        <v>13.26729244777817</v>
+        <v>13.24063278694045</v>
       </c>
       <c r="P11" t="n">
-        <v>378.8633908039482</v>
+        <v>378.9623925200393</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29077,28 +29291,28 @@
         <v>0.0701</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.06529126805605404</v>
+        <v>-0.0850679747873507</v>
       </c>
       <c r="J12" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K12" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001056341785384052</v>
+        <v>0.00181510416599362</v>
       </c>
       <c r="M12" t="n">
-        <v>11.39387038362719</v>
+        <v>11.39935203582915</v>
       </c>
       <c r="N12" t="n">
-        <v>229.4145261788534</v>
+        <v>228.8883436603131</v>
       </c>
       <c r="O12" t="n">
-        <v>15.14643608836261</v>
+        <v>15.129056271305</v>
       </c>
       <c r="P12" t="n">
-        <v>377.3658371043499</v>
+        <v>377.5594921383075</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29136,7 +29350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M543"/>
+  <dimension ref="A1:M547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60689,6 +60903,262 @@
         </is>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:36+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>-42.05967446583755,171.3640582150188</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>-42.05899222596651,171.36391959749832</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>-42.05834256081421,171.3641799523433</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>-42.05768093162356,171.36429388931487</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>-42.05701961913138,171.36441178932046</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr"/>
+      <c r="H544" t="inlineStr"/>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>-42.05501550855799,171.36451897403984</t>
+        </is>
+      </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>-42.0543811060336,171.3649667351508</t>
+        </is>
+      </c>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>-42.053055206678245,171.36516337324522</t>
+        </is>
+      </c>
+      <c r="M544" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:25+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>-42.05964760995788,171.36372935735972</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>-42.05899475558983,171.36395057320914</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>-42.05834044399552,171.36415403115166</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>-42.05767757597972,171.3642527982792</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>-42.057010693339876,171.36430249016047</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>-42.05633913003594,171.36429495200355</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>-42.05567316433393,171.36435604277105</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>-42.05502014868559,171.36457579305377</t>
+        </is>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>-42.05436757090907,171.3648009915191</t>
+        </is>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>-42.05371012059617,171.36496661000868</t>
+        </is>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>-42.05305098277668,171.36511164947453</t>
+        </is>
+      </c>
+      <c r="M545" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:19:38+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>-42.059643024446565,171.3636732076865</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>-42.058987368325305,171.36386011506602</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>-42.05832317946796,171.36394262365772</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>-42.05766086075355,171.36404811721576</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>-42.05700673064759,171.36425396614862</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>-42.05634438971189,171.3643593574428</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>-42.05567138143253,171.36433421111767</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>-42.05501210804347,171.36447733448537</t>
+        </is>
+      </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>-42.054362558929334,171.3647396183535</t>
+        </is>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>-42.05370616142856,171.3649181284978</t>
+        </is>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>-42.053041727381846,171.36499831359168</t>
+        </is>
+      </c>
+      <c r="M546" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:42+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>-42.0596513310857,171.3637749228932</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>-42.05898950451413,171.3638862729215</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>-42.05832635429804,171.363981499703</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>-42.05765902431254,171.36402562993135</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>-42.05699791260309,171.36414598823538</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>-42.0563357090769,171.36425306214306</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>-42.05567361779233,171.36436159538394</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>-42.055015197706176,171.36451516762818</t>
+        </is>
+      </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>-42.054354830019825,171.36464497638912</t>
+        </is>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>-42.05370041062773,171.3648477082143</t>
+        </is>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>-42.05303561372543,171.36492345027682</t>
+        </is>
+      </c>
+      <c r="M547" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0380/nzd0380.xlsx
+++ b/data/nzd0380/nzd0380.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M547"/>
+  <dimension ref="A1:M549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22649,6 +22649,96 @@
         </is>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>392.9417647058824</v>
+      </c>
+      <c r="C548" t="n">
+        <v>394.4011111111111</v>
+      </c>
+      <c r="D548" t="n">
+        <v>392.6509523809524</v>
+      </c>
+      <c r="E548" t="n">
+        <v>394.1211111111111</v>
+      </c>
+      <c r="F548" t="n">
+        <v>394.46</v>
+      </c>
+      <c r="G548" t="n">
+        <v>389.1469230769231</v>
+      </c>
+      <c r="H548" t="n">
+        <v>385.6969230769231</v>
+      </c>
+      <c r="I548" t="n">
+        <v>388.6269230769231</v>
+      </c>
+      <c r="J548" t="n">
+        <v>388.54</v>
+      </c>
+      <c r="K548" t="n">
+        <v>379.6666666666667</v>
+      </c>
+      <c r="L548" t="n">
+        <v>376.8866666666667</v>
+      </c>
+      <c r="M548" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>383.5352941176471</v>
+      </c>
+      <c r="C549" t="n">
+        <v>382.3666666666667</v>
+      </c>
+      <c r="D549" t="n">
+        <v>380.7257142857143</v>
+      </c>
+      <c r="E549" t="n">
+        <v>382.1866666666667</v>
+      </c>
+      <c r="F549" t="n">
+        <v>386.745</v>
+      </c>
+      <c r="G549" t="n">
+        <v>387.2446153846154</v>
+      </c>
+      <c r="H549" t="n">
+        <v>384.5446153846154</v>
+      </c>
+      <c r="I549" t="n">
+        <v>367.3146153846154</v>
+      </c>
+      <c r="J549" t="n">
+        <v>370.84</v>
+      </c>
+      <c r="K549" t="n">
+        <v>374.86</v>
+      </c>
+      <c r="L549" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22660,7 +22750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B567"/>
+  <dimension ref="A1:B569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28338,6 +28428,26 @@
       </c>
       <c r="B567" t="n">
         <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
@@ -28511,28 +28621,28 @@
         <v>0.1062</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.08201823656848273</v>
+        <v>-0.08850293181770069</v>
       </c>
       <c r="J2" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K2" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002010745492713517</v>
+        <v>0.00235719388002964</v>
       </c>
       <c r="M2" t="n">
-        <v>11.03823384826181</v>
+        <v>11.02791136548292</v>
       </c>
       <c r="N2" t="n">
-        <v>197.094018799481</v>
+        <v>196.5868931666604</v>
       </c>
       <c r="O2" t="n">
-        <v>14.03901772915331</v>
+        <v>14.02094480292467</v>
       </c>
       <c r="P2" t="n">
-        <v>398.2627702961614</v>
+        <v>398.3256804437053</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28589,28 +28699,28 @@
         <v>0.1014</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01337584511695812</v>
+        <v>-0.02018835189214787</v>
       </c>
       <c r="J3" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K3" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L3" t="n">
-        <v>5.895454691540181e-05</v>
+        <v>0.0001351272103355949</v>
       </c>
       <c r="M3" t="n">
-        <v>10.21205419202713</v>
+        <v>10.20556384535016</v>
       </c>
       <c r="N3" t="n">
-        <v>176.8494969967134</v>
+        <v>176.5371392586815</v>
       </c>
       <c r="O3" t="n">
-        <v>13.29847724353106</v>
+        <v>13.28672793650421</v>
       </c>
       <c r="P3" t="n">
-        <v>397.1200654220456</v>
+        <v>397.1869302296019</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28667,28 +28777,28 @@
         <v>0.1217</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01381600049222856</v>
+        <v>-0.02072213005855909</v>
       </c>
       <c r="J4" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K4" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L4" t="n">
-        <v>7.325186771367509e-05</v>
+        <v>0.0001657427334911254</v>
       </c>
       <c r="M4" t="n">
-        <v>9.650874229773892</v>
+        <v>9.642721675730815</v>
       </c>
       <c r="N4" t="n">
-        <v>153.6618100707622</v>
+        <v>153.4410022088851</v>
       </c>
       <c r="O4" t="n">
-        <v>12.39604009636796</v>
+        <v>12.38713050746157</v>
       </c>
       <c r="P4" t="n">
-        <v>395.4234205395986</v>
+        <v>395.4908303007379</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28745,28 +28855,28 @@
         <v>0.1091</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01037162892403568</v>
+        <v>-0.01497061055716334</v>
       </c>
       <c r="J5" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K5" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L5" t="n">
-        <v>4.612268769821348e-05</v>
+        <v>9.675195719349716e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>9.240551425062211</v>
+        <v>9.224437490058703</v>
       </c>
       <c r="N5" t="n">
-        <v>141.8032324457783</v>
+        <v>141.4588126140627</v>
       </c>
       <c r="O5" t="n">
-        <v>11.9081162425372</v>
+        <v>11.8936458924109</v>
       </c>
       <c r="P5" t="n">
-        <v>394.0247383281099</v>
+        <v>394.0685910923557</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28823,28 +28933,28 @@
         <v>0.0862</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1131874779770259</v>
+        <v>-0.1137939106730481</v>
       </c>
       <c r="J6" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K6" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005608095354770137</v>
+        <v>0.005716643975050006</v>
       </c>
       <c r="M6" t="n">
-        <v>9.002971575860059</v>
+        <v>8.979535539082873</v>
       </c>
       <c r="N6" t="n">
-        <v>137.5102226380477</v>
+        <v>136.9637870247473</v>
       </c>
       <c r="O6" t="n">
-        <v>11.72647528620803</v>
+        <v>11.70315286684521</v>
       </c>
       <c r="P6" t="n">
-        <v>394.2821753020039</v>
+        <v>394.2879686016717</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28901,28 +29011,28 @@
         <v>0.0701</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05016757623767084</v>
+        <v>-0.05250960177019017</v>
       </c>
       <c r="J7" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K7" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001244078923676173</v>
+        <v>0.001374898423032178</v>
       </c>
       <c r="M7" t="n">
-        <v>8.506127362182644</v>
+        <v>8.47900253615358</v>
       </c>
       <c r="N7" t="n">
-        <v>122.67885855455</v>
+        <v>122.1499242376205</v>
       </c>
       <c r="O7" t="n">
-        <v>11.07604886927419</v>
+        <v>11.05214568478088</v>
       </c>
       <c r="P7" t="n">
-        <v>392.3125261114368</v>
+        <v>392.334825614246</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28979,28 +29089,28 @@
         <v>0.0711</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04947538772146808</v>
+        <v>0.04626695968194802</v>
       </c>
       <c r="J8" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K8" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001050321903402707</v>
+        <v>0.0009265928859496508</v>
       </c>
       <c r="M8" t="n">
-        <v>9.052375254155516</v>
+        <v>9.028528388854316</v>
       </c>
       <c r="N8" t="n">
-        <v>139.3336081359639</v>
+        <v>138.7604704806695</v>
       </c>
       <c r="O8" t="n">
-        <v>11.80396578002342</v>
+        <v>11.77966342815742</v>
       </c>
       <c r="P8" t="n">
-        <v>387.6840266946308</v>
+        <v>387.714944139813</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29057,28 +29167,28 @@
         <v>0.0761</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006672899087049479</v>
+        <v>0.001713974131496624</v>
       </c>
       <c r="J9" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K9" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L9" t="n">
-        <v>1.708242108844349e-05</v>
+        <v>1.13241220600635e-06</v>
       </c>
       <c r="M9" t="n">
-        <v>9.47275067206756</v>
+        <v>9.480186768887156</v>
       </c>
       <c r="N9" t="n">
-        <v>153.8354247845593</v>
+        <v>153.8065254042793</v>
       </c>
       <c r="O9" t="n">
-        <v>12.40304094908016</v>
+        <v>12.40187588247356</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6679323998562</v>
+        <v>383.7163101913738</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29135,28 +29245,28 @@
         <v>0.0554</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0850844355420684</v>
+        <v>-0.08513426223304785</v>
       </c>
       <c r="J10" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K10" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00270385019891406</v>
+        <v>0.002726046919298009</v>
       </c>
       <c r="M10" t="n">
-        <v>9.552361437216698</v>
+        <v>9.549131840325865</v>
       </c>
       <c r="N10" t="n">
-        <v>155.6070811110002</v>
+        <v>155.2515266964827</v>
       </c>
       <c r="O10" t="n">
-        <v>12.47425673581397</v>
+        <v>12.45999705844599</v>
       </c>
       <c r="P10" t="n">
-        <v>381.9365384973785</v>
+        <v>381.9371488433141</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29213,28 +29323,28 @@
         <v>0.0646</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08794051836327324</v>
+        <v>-0.08743138565583881</v>
       </c>
       <c r="J11" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K11" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002533108152071306</v>
+        <v>0.002527791986232319</v>
       </c>
       <c r="M11" t="n">
-        <v>9.93969850477265</v>
+        <v>9.904848604852397</v>
       </c>
       <c r="N11" t="n">
-        <v>175.3143565986024</v>
+        <v>174.5345925808707</v>
       </c>
       <c r="O11" t="n">
-        <v>13.24063278694045</v>
+        <v>13.2111540972343</v>
       </c>
       <c r="P11" t="n">
-        <v>378.9623925200393</v>
+        <v>378.9574416132545</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29291,28 +29401,28 @@
         <v>0.0701</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0850679747873507</v>
+        <v>-0.0879373640971251</v>
       </c>
       <c r="J12" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K12" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00181510416599362</v>
+        <v>0.001957471406369149</v>
       </c>
       <c r="M12" t="n">
-        <v>11.39935203582915</v>
+        <v>11.36876064425272</v>
       </c>
       <c r="N12" t="n">
-        <v>228.8883436603131</v>
+        <v>227.940744334521</v>
       </c>
       <c r="O12" t="n">
-        <v>15.129056271305</v>
+        <v>15.0977065918808</v>
       </c>
       <c r="P12" t="n">
-        <v>377.5594921383075</v>
+        <v>377.5877608832415</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29350,7 +29460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M547"/>
+  <dimension ref="A1:M549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61159,6 +61269,140 @@
         </is>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>-42.05965715479636,171.3638462351906</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>-42.058991871753186,171.36391526009828</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>-42.058329729963646,171.36402283517614</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>-42.05766442245574,171.3640917305406</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>-42.057000217663415,171.36417421382689</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>-42.05634154974788,171.3643245816454</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>-42.055681047379565,171.36445257140127</t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>-42.05501428023986,171.36450393317068</t>
+        </is>
+      </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>-42.05435046530946,171.36459153011333</t>
+        </is>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>-42.053695261352274,171.36478465424872</t>
+        </is>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>-42.053034073860985,171.3649045943321</t>
+        </is>
+      </c>
+      <c r="M548" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>-42.05966638159174,171.36395921995685</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>-42.05900367623295,171.36405980898826</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>-42.058341427205285,171.36416607089294</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>-42.057676128656254,171.3642350753527</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>-42.05700778507884,171.36426687785905</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>-42.05634341564464,171.36434742982433</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>-42.05568217761819,171.36446641136212</t>
+        </is>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>-42.05503518401561,171.36475990519952</t>
+        </is>
+      </c>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t>-42.054367825920885,171.36480411422448</t>
+        </is>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>-42.05369997580135,171.3648423836568</t>
+        </is>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>-42.05304328030821,171.36501732967687</t>
+        </is>
+      </c>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0380/nzd0380.xlsx
+++ b/data/nzd0380/nzd0380.xlsx
@@ -28612,13 +28612,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0688</v>
+        <v>0.0465</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1062</v>
+        <v>0.0542</v>
       </c>
       <c r="I2" t="n">
         <v>-0.08851853178008155</v>
@@ -28690,13 +28690,13 @@
         <v>0.9000000000000269</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07870000000000001</v>
+        <v>0.0471</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1014</v>
+        <v>0.0586</v>
       </c>
       <c r="I3" t="n">
         <v>-0.02017271215167512</v>
@@ -28768,13 +28768,13 @@
         <v>0.7999999999994856</v>
       </c>
       <c r="F4" t="n">
-        <v>0.105</v>
+        <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09080000000000001</v>
+        <v>0.0564</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1217</v>
+        <v>0.0723</v>
       </c>
       <c r="I4" t="n">
         <v>-0.02072223622514279</v>
@@ -28846,13 +28846,13 @@
         <v>0.6999999999998714</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0799</v>
+        <v>0.0608</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1091</v>
+        <v>0.0887</v>
       </c>
       <c r="I5" t="n">
         <v>-0.01495480738228518</v>
@@ -28924,13 +28924,13 @@
         <v>0.5999999999989712</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0732</v>
+        <v>0.0579</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0862</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>-0.1138173148586267</v>
@@ -29002,13 +29002,13 @@
         <v>0.49999999999843</v>
       </c>
       <c r="F7" t="n">
-        <v>0.065</v>
+        <v>0.055</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0624</v>
+        <v>0.05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0701</v>
+        <v>0.0663</v>
       </c>
       <c r="I7" t="n">
         <v>-0.0525356631983832</v>
@@ -29080,13 +29080,13 @@
         <v>0.3999999999988158</v>
       </c>
       <c r="F8" t="n">
-        <v>0.065</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06</v>
+        <v>0.0478</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0711</v>
+        <v>0.0575</v>
       </c>
       <c r="I8" t="n">
         <v>0.0462434519635861</v>
@@ -29158,13 +29158,13 @@
         <v>0.2999999999992016</v>
       </c>
       <c r="F9" t="n">
-        <v>0.065</v>
+        <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0602</v>
+        <v>0.0386</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0761</v>
+        <v>0.0428</v>
       </c>
       <c r="I9" t="n">
         <v>0.00167798270945005</v>
@@ -29236,13 +29236,13 @@
         <v>0.1999999999995873</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.035</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0454</v>
+        <v>0.0341</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0554</v>
+        <v>0.0396</v>
       </c>
       <c r="I10" t="n">
         <v>-0.08513426223304787</v>
@@ -29314,13 +29314,13 @@
         <v>0.0999999999999731</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
+        <v>0.045</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0526</v>
+        <v>0.0385</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0646</v>
+        <v>0.0495</v>
       </c>
       <c r="I11" t="n">
         <v>-0.08742672713490025</v>
@@ -29392,13 +29392,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06</v>
+        <v>0.045</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0501</v>
+        <v>0.0383</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0701</v>
+        <v>0.0491</v>
       </c>
       <c r="I12" t="n">
         <v>-0.08793816381784328</v>

--- a/data/nzd0380/nzd0380.xlsx
+++ b/data/nzd0380/nzd0380.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M548"/>
+  <dimension ref="A1:M549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25109,6 +25109,51 @@
         <v>379.19</v>
       </c>
       <c r="M548" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:13:40+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>396.3</v>
+      </c>
+      <c r="C549" t="n">
+        <v>395.32</v>
+      </c>
+      <c r="D549" t="n">
+        <v>392.6</v>
+      </c>
+      <c r="E549" t="n">
+        <v>392.46</v>
+      </c>
+      <c r="F549" t="n">
+        <v>390.74</v>
+      </c>
+      <c r="G549" t="n">
+        <v>391.03</v>
+      </c>
+      <c r="H549" t="n">
+        <v>393.5</v>
+      </c>
+      <c r="I549" t="n">
+        <v>392.1</v>
+      </c>
+      <c r="J549" t="n">
+        <v>384.77</v>
+      </c>
+      <c r="K549" t="n">
+        <v>380.01</v>
+      </c>
+      <c r="L549" t="n">
+        <v>378.26</v>
+      </c>
+      <c r="M549" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -25125,7 +25170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B570"/>
+  <dimension ref="A1:B571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30833,6 +30878,16 @@
       </c>
       <c r="B570" t="n">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
@@ -31000,34 +31055,34 @@
         <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0466</v>
+        <v>0.0468</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0544</v>
+        <v>0.0545</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1074910740344314</v>
+        <v>-0.10822549822868</v>
       </c>
       <c r="J2" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K2" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01081363082190556</v>
+        <v>0.01100337962576248</v>
       </c>
       <c r="M2" t="n">
-        <v>6.382958326450338</v>
+        <v>6.375312535095525</v>
       </c>
       <c r="N2" t="n">
-        <v>59.4522490430692</v>
+        <v>59.35117301422129</v>
       </c>
       <c r="O2" t="n">
-        <v>7.710528454202682</v>
+        <v>7.703971249571307</v>
       </c>
       <c r="P2" t="n">
-        <v>401.141391442941</v>
+        <v>401.1487142734277</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31078,34 +31133,34 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0472</v>
+        <v>0.0473</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0589</v>
+        <v>0.0592</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07781009371858903</v>
+        <v>-0.0791694653185287</v>
       </c>
       <c r="J3" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K3" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00673064189760908</v>
+        <v>0.006991076644720651</v>
       </c>
       <c r="M3" t="n">
-        <v>5.542428983200048</v>
+        <v>5.539246784644857</v>
       </c>
       <c r="N3" t="n">
-        <v>50.2573203897853</v>
+        <v>50.19100823429781</v>
       </c>
       <c r="O3" t="n">
-        <v>7.089239761059383</v>
+        <v>7.084561259125212</v>
       </c>
       <c r="P3" t="n">
-        <v>401.1059425723136</v>
+        <v>401.1194966570954</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31156,34 +31211,34 @@
         <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0565</v>
+        <v>0.0566</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0723</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03805625660912692</v>
+        <v>-0.03962903832960674</v>
       </c>
       <c r="J4" t="n">
+        <v>548</v>
+      </c>
+      <c r="K4" t="n">
         <v>547</v>
       </c>
-      <c r="K4" t="n">
-        <v>546</v>
-      </c>
       <c r="L4" t="n">
-        <v>0.002449543045494718</v>
+        <v>0.002663773364847799</v>
       </c>
       <c r="M4" t="n">
-        <v>4.696715704212403</v>
+        <v>4.695351295874289</v>
       </c>
       <c r="N4" t="n">
-        <v>33.18427694954826</v>
+        <v>33.15764226117879</v>
       </c>
       <c r="O4" t="n">
-        <v>5.760579567157133</v>
+        <v>5.758267296781106</v>
       </c>
       <c r="P4" t="n">
-        <v>397.9233923031676</v>
+        <v>397.9390832916618</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31237,31 +31292,31 @@
         <v>0.0608</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0887</v>
+        <v>0.0883</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02718384484069537</v>
+        <v>-0.02803844991458513</v>
       </c>
       <c r="J5" t="n">
+        <v>548</v>
+      </c>
+      <c r="K5" t="n">
         <v>547</v>
       </c>
-      <c r="K5" t="n">
-        <v>546</v>
-      </c>
       <c r="L5" t="n">
-        <v>0.001287380839371965</v>
+        <v>0.001374663203737359</v>
       </c>
       <c r="M5" t="n">
-        <v>4.611184655033932</v>
+        <v>4.606800086626311</v>
       </c>
       <c r="N5" t="n">
-        <v>32.25415666557957</v>
+        <v>32.20523894068463</v>
       </c>
       <c r="O5" t="n">
-        <v>5.679274308006224</v>
+        <v>5.674965985861468</v>
       </c>
       <c r="P5" t="n">
-        <v>395.5207028601839</v>
+        <v>395.5292288992438</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31312,34 +31367,34 @@
         <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0578</v>
+        <v>0.0577</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0784</v>
+        <v>0.078</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1207729754671133</v>
+        <v>-0.1213168888093912</v>
       </c>
       <c r="J6" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K6" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03139927799205577</v>
+        <v>0.03179458940754154</v>
       </c>
       <c r="M6" t="n">
-        <v>4.191593262978304</v>
+        <v>4.186573976574234</v>
       </c>
       <c r="N6" t="n">
-        <v>25.30938300081608</v>
+        <v>25.26726418283914</v>
       </c>
       <c r="O6" t="n">
-        <v>5.030843169968239</v>
+        <v>5.02665536742267</v>
       </c>
       <c r="P6" t="n">
-        <v>395.401882349647</v>
+        <v>395.407305625781</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31390,34 +31445,34 @@
         <v>0.055</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05</v>
+        <v>0.0499</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06619999999999999</v>
+        <v>0.0658</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04531788433107192</v>
+        <v>-0.0457533312141441</v>
       </c>
       <c r="J7" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K7" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004391075825839419</v>
+        <v>0.004493316126996327</v>
       </c>
       <c r="M7" t="n">
-        <v>3.956943699606871</v>
+        <v>3.951742471791159</v>
       </c>
       <c r="N7" t="n">
-        <v>26.19232171672781</v>
+        <v>26.14713165285667</v>
       </c>
       <c r="O7" t="n">
-        <v>5.117843463484187</v>
+        <v>5.113426605795439</v>
       </c>
       <c r="P7" t="n">
-        <v>393.4185488668995</v>
+        <v>393.4228906406805</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31471,31 +31526,31 @@
         <v>0.0478</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0576</v>
+        <v>0.0575</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0633240786102965</v>
+        <v>0.06463828744136783</v>
       </c>
       <c r="J8" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K8" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007333743137449389</v>
+        <v>0.007664125798980348</v>
       </c>
       <c r="M8" t="n">
-        <v>4.263970144509617</v>
+        <v>4.262226269315542</v>
       </c>
       <c r="N8" t="n">
-        <v>30.53038088736041</v>
+        <v>30.49840720291002</v>
       </c>
       <c r="O8" t="n">
-        <v>5.52543038028355</v>
+        <v>5.522536301638045</v>
       </c>
       <c r="P8" t="n">
-        <v>388.2268730335372</v>
+        <v>388.2137692597653</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31549,31 +31604,31 @@
         <v>0.0386</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0429</v>
+        <v>0.043</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05570318744137012</v>
+        <v>0.05750776729825336</v>
       </c>
       <c r="J9" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K9" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005103248005445149</v>
+        <v>0.005452465299772169</v>
       </c>
       <c r="M9" t="n">
-        <v>4.748441261518332</v>
+        <v>4.749546861021593</v>
       </c>
       <c r="N9" t="n">
-        <v>34.02579896844822</v>
+        <v>34.00846707504785</v>
       </c>
       <c r="O9" t="n">
-        <v>5.833163718639159</v>
+        <v>5.831677895344345</v>
       </c>
       <c r="P9" t="n">
-        <v>385.6690113031557</v>
+        <v>385.651018115438</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31627,31 +31682,31 @@
         <v>0.0341</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0394</v>
+        <v>0.0397</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.09381329030729044</v>
+        <v>-0.09276507736944173</v>
       </c>
       <c r="J10" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K10" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01289507011277935</v>
+        <v>0.01265821815768486</v>
       </c>
       <c r="M10" t="n">
-        <v>4.974886275512531</v>
+        <v>4.970983754478732</v>
       </c>
       <c r="N10" t="n">
-        <v>37.89529120005174</v>
+        <v>37.84124094947064</v>
       </c>
       <c r="O10" t="n">
-        <v>6.155915139120401</v>
+        <v>6.151523465733561</v>
       </c>
       <c r="P10" t="n">
-        <v>384.3451852915237</v>
+        <v>384.3347337218206</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31708,28 +31763,28 @@
         <v>0.0494</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08284525836512213</v>
+        <v>-0.08204607930382828</v>
       </c>
       <c r="J11" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K11" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01031092155695534</v>
+        <v>0.01015363461798136</v>
       </c>
       <c r="M11" t="n">
-        <v>4.698204382793074</v>
+        <v>4.693139365860961</v>
       </c>
       <c r="N11" t="n">
-        <v>37.05557079283775</v>
+        <v>36.99672955434954</v>
       </c>
       <c r="O11" t="n">
-        <v>6.087328707474055</v>
+        <v>6.082493695380993</v>
       </c>
       <c r="P11" t="n">
-        <v>379.9782054365273</v>
+        <v>379.9702369452383</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31786,28 +31841,28 @@
         <v>0.0491</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.08618718373711851</v>
+        <v>-0.08572176795200846</v>
       </c>
       <c r="J12" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K12" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007719705508657082</v>
+        <v>0.007667855298890247</v>
       </c>
       <c r="M12" t="n">
-        <v>5.724573945737321</v>
+        <v>5.716632229528087</v>
       </c>
       <c r="N12" t="n">
-        <v>53.70762063646562</v>
+        <v>53.61259124443396</v>
       </c>
       <c r="O12" t="n">
-        <v>7.32854833077231</v>
+        <v>7.322061953058985</v>
       </c>
       <c r="P12" t="n">
-        <v>379.2358053284977</v>
+        <v>379.231164739412</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31845,7 +31900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M548"/>
+  <dimension ref="A1:M549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68561,6 +68616,73 @@
         </is>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:13:40+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>-42.05965386068069,171.36380589813288</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>-42.0589909704158,171.3639042230836</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>-42.05832977994225,171.36402344717226</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>-42.05766605180909,171.36411168217046</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>-42.05700386651073,171.36421889434226</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>-42.05633970270932,171.3643019644443</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>-42.05567339370394,171.36435885141384</t>
+        </is>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>-42.05501087368391,171.3644622197071</t>
+        </is>
+      </c>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t>-42.05435416305447,171.36463680931723</t>
+        </is>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>-42.053694924604805,171.36478053071994</t>
+        </is>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>-42.05303272688575,171.36488810038554</t>
+        </is>
+      </c>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
